--- a/examples/multiple-sets-summary.xlsx
+++ b/examples/multiple-sets-summary.xlsx
@@ -14,12 +14,12 @@
     <sheet name="AQ" sheetId="5" r:id="rId5"/>
     <sheet name="M5Rules" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="218">
   <si>
     <t>Dataset</t>
   </si>
@@ -417,9 +417,6 @@
     <t>mbagrade</t>
   </si>
   <si>
-    <t>meta</t>
-  </si>
-  <si>
     <t>mortgage</t>
   </si>
   <si>
@@ -673,6 +670,9 @@
   </si>
   <si>
     <t>#conds</t>
+  </si>
+  <si>
+    <t>test_rrmseMeanValueTest</t>
   </si>
 </sst>
 </file>
@@ -728,7 +728,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -749,19 +749,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -786,7 +773,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
@@ -809,19 +796,16 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -1125,8 +1109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ56"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="S52" sqref="S52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1151,7 +1135,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
@@ -7435,15 +7419,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB52"/>
+  <dimension ref="A1:AB51"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="Z19" sqref="Z1:Z1048576"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1:AA1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
@@ -7463,7 +7448,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>5</v>
@@ -7636,7 +7621,7 @@
         <v>12.5</v>
       </c>
       <c r="G3" s="4">
-        <f t="shared" ref="G3:G49" si="0">F3*H3</f>
+        <f t="shared" ref="G3:G48" si="0">F3*H3</f>
         <v>65.700611888111894</v>
       </c>
       <c r="H3" s="4">
@@ -10133,81 +10118,83 @@
         <v>132</v>
       </c>
       <c r="C32" s="4">
-        <v>1.5431715573</v>
+        <v>309.22016644550001</v>
       </c>
       <c r="D32" s="4">
-        <v>1.3279610263000001</v>
+        <v>267.84704804470005</v>
       </c>
       <c r="E32" s="4">
-        <v>0.21059224610000005</v>
+        <v>41.358040905500005</v>
       </c>
       <c r="F32" s="4">
-        <v>12.3</v>
+        <v>41.3</v>
       </c>
       <c r="G32" s="4">
         <f t="shared" si="0"/>
-        <v>36.063083916083919</v>
+        <v>202.64297327686586</v>
       </c>
       <c r="H32" s="4">
-        <v>2.9319580419580418</v>
+        <v>4.906609522442273</v>
       </c>
       <c r="I32" s="4">
-        <v>10.51357808857809</v>
+        <v>53.766754762911546</v>
       </c>
       <c r="J32" s="4">
-        <v>0.45866434188287747</v>
+        <v>7.3923504703506879E-2</v>
       </c>
       <c r="K32" s="4">
-        <v>0.95701059209818096</v>
+        <v>0.8445217950450209</v>
       </c>
       <c r="L32" s="4">
-        <v>0.56440382899278374</v>
+        <v>0.61317950800108201</v>
       </c>
       <c r="M32" s="4">
-        <v>7.8837745454285152E-2</v>
+        <v>4.4317623932479331E-4</v>
       </c>
       <c r="N32" s="4">
-        <v>7.8837745454285152E-2</v>
+        <v>4.4838678178490922E-4</v>
       </c>
       <c r="O32" s="4">
-        <v>7.8837745454285152E-2</v>
+        <v>6.6910208851238447E-4</v>
       </c>
       <c r="P32" s="4">
-        <v>0.91786713286713317</v>
+        <v>1</v>
       </c>
       <c r="Q32" s="4">
-        <v>0.91786713286713317</v>
+        <v>1</v>
       </c>
       <c r="R32" s="4">
-        <v>0.91786713286713317</v>
+        <v>1</v>
       </c>
       <c r="S32" s="4">
-        <v>185.54216238644506</v>
+        <v>1.0530746958699004</v>
       </c>
       <c r="T32" s="4">
-        <v>15.231999613892262</v>
+        <v>0.12808902888242243</v>
       </c>
       <c r="U32" s="4">
-        <v>0.61511229270622336</v>
-      </c>
-      <c r="V32" s="4"/>
+        <v>0.11584621816511516</v>
+      </c>
+      <c r="V32" s="4">
+        <v>0.15220796411697948</v>
+      </c>
       <c r="W32" s="4">
-        <v>2.6106825203095623</v>
+        <v>0.42942462324624681</v>
       </c>
       <c r="X32" s="4">
-        <v>1621646.9996523552</v>
+        <v>2.9044399462072716</v>
       </c>
       <c r="Y32" s="4">
-        <v>932.3526990219101</v>
+        <v>1.5977412974988712</v>
       </c>
       <c r="Z32" s="4">
-        <v>5.7656325865916447</v>
+        <v>0.51578063784958794</v>
       </c>
       <c r="AA32" s="4">
-        <v>0.21438256568732622</v>
+        <v>0.85010319129518064</v>
       </c>
       <c r="AB32" s="4">
-        <v>9.5094112537953565E-2</v>
+        <v>0.73498244555467607</v>
       </c>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.25">
@@ -10218,83 +10205,83 @@
         <v>133</v>
       </c>
       <c r="C33" s="4">
-        <v>309.22016644550001</v>
+        <v>38.925261826000003</v>
       </c>
       <c r="D33" s="4">
-        <v>267.84704804470005</v>
+        <v>32.625071401699998</v>
       </c>
       <c r="E33" s="4">
-        <v>41.358040905500005</v>
+        <v>6.2948186463000004</v>
       </c>
       <c r="F33" s="4">
-        <v>41.3</v>
+        <v>24.8</v>
       </c>
       <c r="G33" s="4">
         <f t="shared" si="0"/>
-        <v>202.64297327686586</v>
+        <v>141.02574178624971</v>
       </c>
       <c r="H33" s="4">
-        <v>4.906609522442273</v>
+        <v>5.6865218462197467</v>
       </c>
       <c r="I33" s="4">
-        <v>53.766754762911546</v>
+        <v>37.744812819780591</v>
       </c>
       <c r="J33" s="4">
-        <v>7.3923504703506879E-2</v>
+        <v>0.10497730468135114</v>
       </c>
       <c r="K33" s="4">
-        <v>0.8445217950450209</v>
+        <v>0.81563630479976301</v>
       </c>
       <c r="L33" s="4">
-        <v>0.61317950800108201</v>
+        <v>0.46050778240268525</v>
       </c>
       <c r="M33" s="4">
-        <v>4.4317623932479331E-4</v>
+        <v>3.6137623028679837E-2</v>
       </c>
       <c r="N33" s="4">
-        <v>4.4838678178490922E-4</v>
+        <v>4.0320198900577135E-2</v>
       </c>
       <c r="O33" s="4">
-        <v>6.6910208851238447E-4</v>
+        <v>0.10799408674088248</v>
       </c>
       <c r="P33" s="4">
-        <v>1</v>
+        <v>0.81986237833464215</v>
       </c>
       <c r="Q33" s="4">
-        <v>1</v>
+        <v>0.78690344113657451</v>
       </c>
       <c r="R33" s="4">
-        <v>1</v>
+        <v>0.59337206396801601</v>
       </c>
       <c r="S33" s="4">
-        <v>1.0530746958699004</v>
+        <v>3.9761374655317629</v>
       </c>
       <c r="T33" s="4">
-        <v>0.12808902888242243</v>
+        <v>0.44171857668119896</v>
       </c>
       <c r="U33" s="4">
-        <v>0.11584621816511516</v>
+        <v>0.298826697639825</v>
       </c>
       <c r="V33" s="4">
-        <v>0.15220796411697948</v>
+        <v>0.58492246024175609</v>
       </c>
       <c r="W33" s="4">
-        <v>0.42942462324624681</v>
+        <v>0.61100052958155815</v>
       </c>
       <c r="X33" s="4">
-        <v>2.9044399462072716</v>
+        <v>30.500321976562976</v>
       </c>
       <c r="Y33" s="4">
-        <v>1.5977412974988712</v>
+        <v>5.4686021785634011</v>
       </c>
       <c r="Z33" s="4">
-        <v>0.51578063784958794</v>
+        <v>0.69662662568791212</v>
       </c>
       <c r="AA33" s="4">
-        <v>0.85010319129518064</v>
+        <v>0.76404766851874495</v>
       </c>
       <c r="AB33" s="4">
-        <v>0.73498244555467607</v>
+        <v>0.58995790179619001</v>
       </c>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.25">
@@ -10305,83 +10292,83 @@
         <v>134</v>
       </c>
       <c r="C34" s="4">
-        <v>38.925261826000003</v>
+        <v>35.911472388100002</v>
       </c>
       <c r="D34" s="4">
-        <v>32.625071401699998</v>
+        <v>31.939508282700007</v>
       </c>
       <c r="E34" s="4">
-        <v>6.2948186463000004</v>
+        <v>3.9621490719000008</v>
       </c>
       <c r="F34" s="4">
-        <v>24.8</v>
+        <v>41.4</v>
       </c>
       <c r="G34" s="4">
         <f t="shared" si="0"/>
-        <v>141.02574178624971</v>
+        <v>245.11489818041551</v>
       </c>
       <c r="H34" s="4">
-        <v>5.6865218462197467</v>
+        <v>5.9206497145027903</v>
       </c>
       <c r="I34" s="4">
-        <v>37.744812819780591</v>
+        <v>26.944783236500321</v>
       </c>
       <c r="J34" s="4">
-        <v>0.10497730468135114</v>
+        <v>5.7843554641121897E-2</v>
       </c>
       <c r="K34" s="4">
-        <v>0.81563630479976301</v>
+        <v>0.81803976318605076</v>
       </c>
       <c r="L34" s="4">
-        <v>0.46050778240268525</v>
+        <v>0.38947588396867588</v>
       </c>
       <c r="M34" s="4">
-        <v>3.6137623028679837E-2</v>
+        <v>0.12903186542920664</v>
       </c>
       <c r="N34" s="4">
-        <v>4.0320198900577135E-2</v>
+        <v>0.16642092216245669</v>
       </c>
       <c r="O34" s="4">
-        <v>0.10799408674088248</v>
+        <v>1.0558329111774207</v>
       </c>
       <c r="P34" s="4">
-        <v>0.81986237833464215</v>
+        <v>0.51669016074648833</v>
       </c>
       <c r="Q34" s="4">
-        <v>0.78690344113657451</v>
+        <v>0.31929362426272234</v>
       </c>
       <c r="R34" s="4">
-        <v>0.59337206396801601</v>
+        <v>0.13758672426423804</v>
       </c>
       <c r="S34" s="4">
-        <v>3.9761374655317629</v>
+        <v>794.2443520885347</v>
       </c>
       <c r="T34" s="4">
-        <v>0.44171857668119896</v>
+        <v>0.80069324144722298</v>
       </c>
       <c r="U34" s="4">
-        <v>0.298826697639825</v>
+        <v>0.34554862077456805</v>
       </c>
       <c r="V34" s="4">
-        <v>0.58492246024175609</v>
+        <v>1.0394272765822365</v>
       </c>
       <c r="W34" s="4">
-        <v>0.61100052958155815</v>
+        <v>0.87436076687590325</v>
       </c>
       <c r="X34" s="4">
-        <v>30.500321976562976</v>
+        <v>1128245.6228469326</v>
       </c>
       <c r="Y34" s="4">
-        <v>5.4686021785634011</v>
+        <v>1049.1871987703669</v>
       </c>
       <c r="Z34" s="4">
-        <v>0.69662662568791212</v>
+        <v>0.95921176498528526</v>
       </c>
       <c r="AA34" s="4">
-        <v>0.76404766851874495</v>
+        <v>0.49646134864195479</v>
       </c>
       <c r="AB34" s="4">
-        <v>0.58995790179619001</v>
+        <v>0.2785006940169204</v>
       </c>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.25">
@@ -10392,83 +10379,83 @@
         <v>135</v>
       </c>
       <c r="C35" s="4">
-        <v>35.911472388100002</v>
+        <v>1.6384303567000003</v>
       </c>
       <c r="D35" s="4">
-        <v>31.939508282700007</v>
+        <v>1.5639584920000005</v>
       </c>
       <c r="E35" s="4">
-        <v>3.9621490719000008</v>
+        <v>7.0749855900000005E-2</v>
       </c>
       <c r="F35" s="4">
-        <v>41.4</v>
+        <v>12.1</v>
       </c>
       <c r="G35" s="4">
         <f t="shared" si="0"/>
-        <v>245.11489818041551</v>
+        <v>39.615944291819297</v>
       </c>
       <c r="H35" s="4">
-        <v>5.9206497145027903</v>
+        <v>3.2740449827949831</v>
       </c>
       <c r="I35" s="4">
-        <v>26.944783236500321</v>
+        <v>11.382503052503054</v>
       </c>
       <c r="J35" s="4">
-        <v>5.7843554641121897E-2</v>
+        <v>0.18926751487011778</v>
       </c>
       <c r="K35" s="4">
-        <v>0.81803976318605076</v>
+        <v>0.7911537977626496</v>
       </c>
       <c r="L35" s="4">
-        <v>0.38947588396867588</v>
+        <v>0.42031254656899109</v>
       </c>
       <c r="M35" s="4">
-        <v>0.12903186542920664</v>
+        <v>0.13094604570587909</v>
       </c>
       <c r="N35" s="4">
-        <v>0.16642092216245669</v>
+        <v>0.15447831247110982</v>
       </c>
       <c r="O35" s="4">
-        <v>1.0558329111774207</v>
+        <v>0.33219714653305232</v>
       </c>
       <c r="P35" s="4">
-        <v>0.51669016074648833</v>
+        <v>0.55813422688422687</v>
       </c>
       <c r="Q35" s="4">
-        <v>0.31929362426272234</v>
+        <v>0.50973262848262846</v>
       </c>
       <c r="R35" s="4">
-        <v>0.13758672426423804</v>
+        <v>0.42558066933066935</v>
       </c>
       <c r="S35" s="4">
-        <v>794.2443520885347</v>
+        <v>254.77864144188885</v>
       </c>
       <c r="T35" s="4">
-        <v>0.80069324144722298</v>
+        <v>0.94504718647919428</v>
       </c>
       <c r="U35" s="4">
-        <v>0.34554862077456805</v>
+        <v>0.36806987894790394</v>
       </c>
       <c r="V35" s="4">
-        <v>1.0394272765822365</v>
+        <v>1.1865330236789149</v>
       </c>
       <c r="W35" s="4">
-        <v>0.87436076687590325</v>
+        <v>0.7679445038092646</v>
       </c>
       <c r="X35" s="4">
-        <v>1128245.6228469326</v>
+        <v>124955.30633177803</v>
       </c>
       <c r="Y35" s="4">
-        <v>1049.1871987703669</v>
+        <v>347.98488048068396</v>
       </c>
       <c r="Z35" s="4">
-        <v>0.95921176498528526</v>
+        <v>0.85243183021493552</v>
       </c>
       <c r="AA35" s="4">
-        <v>0.49646134864195479</v>
+        <v>0.64177637674179067</v>
       </c>
       <c r="AB35" s="4">
-        <v>0.2785006940169204</v>
+        <v>0.42892792644814709</v>
       </c>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.25">
@@ -10479,83 +10466,83 @@
         <v>136</v>
       </c>
       <c r="C36" s="4">
-        <v>1.6384303567000003</v>
+        <v>55.675099290899993</v>
       </c>
       <c r="D36" s="4">
-        <v>1.5639584920000005</v>
+        <v>48.543025492900007</v>
       </c>
       <c r="E36" s="4">
-        <v>7.0749855900000005E-2</v>
+        <v>7.0918298937999991</v>
       </c>
       <c r="F36" s="4">
-        <v>12.1</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="G36" s="4">
         <f t="shared" si="0"/>
-        <v>39.615944291819297</v>
+        <v>179.4020463127473</v>
       </c>
       <c r="H36" s="4">
-        <v>3.2740449827949831</v>
+        <v>2.5665528800106907</v>
       </c>
       <c r="I36" s="4">
-        <v>11.382503052503054</v>
+        <v>16.517880434982189</v>
       </c>
       <c r="J36" s="4">
-        <v>0.18926751487011778</v>
+        <v>4.6908947361999895E-2</v>
       </c>
       <c r="K36" s="4">
-        <v>0.7911537977626496</v>
+        <v>0.790220820470381</v>
       </c>
       <c r="L36" s="4">
-        <v>0.42031254656899109</v>
+        <v>0.37212898649230708</v>
       </c>
       <c r="M36" s="4">
-        <v>0.13094604570587909</v>
+        <v>1.5442920504716013E-2</v>
       </c>
       <c r="N36" s="4">
-        <v>0.15447831247110982</v>
+        <v>1.6479222147329949E-2</v>
       </c>
       <c r="O36" s="4">
-        <v>0.33219714653305232</v>
+        <v>8.1960334236929083E-2</v>
       </c>
       <c r="P36" s="4">
-        <v>0.55813422688422687</v>
+        <v>0.89103962719522123</v>
       </c>
       <c r="Q36" s="4">
-        <v>0.50973262848262846</v>
+        <v>0.88516201044803933</v>
       </c>
       <c r="R36" s="4">
-        <v>0.42558066933066935</v>
+        <v>0.72325703478675041</v>
       </c>
       <c r="S36" s="4">
-        <v>254.77864144188885</v>
+        <v>2.0970696381531608</v>
       </c>
       <c r="T36" s="4">
-        <v>0.94504718647919428</v>
+        <v>0.14572220106266448</v>
       </c>
       <c r="U36" s="4">
-        <v>0.36806987894790394</v>
+        <v>0.12688972228385864</v>
       </c>
       <c r="V36" s="4">
-        <v>1.1865330236789149</v>
+        <v>0.16544324803252672</v>
       </c>
       <c r="W36" s="4">
-        <v>0.7679445038092646</v>
+        <v>0.69909729694520339</v>
       </c>
       <c r="X36" s="4">
-        <v>124955.30633177803</v>
+        <v>8.2300045230058423</v>
       </c>
       <c r="Y36" s="4">
-        <v>347.98488048068396</v>
+        <v>2.8456560529720871</v>
       </c>
       <c r="Z36" s="4">
-        <v>0.85243183021493552</v>
+        <v>0.83325915180913113</v>
       </c>
       <c r="AA36" s="4">
-        <v>0.64177637674179067</v>
+        <v>0.69880771729209734</v>
       </c>
       <c r="AB36" s="4">
-        <v>0.42892792644814709</v>
+        <v>0.49149015710703042</v>
       </c>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.25">
@@ -10566,83 +10553,83 @@
         <v>137</v>
       </c>
       <c r="C37" s="4">
-        <v>55.675099290899993</v>
+        <v>0.19969624870000002</v>
       </c>
       <c r="D37" s="4">
-        <v>48.543025492900007</v>
+        <v>0.18953356179999997</v>
       </c>
       <c r="E37" s="4">
-        <v>7.0918298937999991</v>
+        <v>9.1846367999999998E-3</v>
       </c>
       <c r="F37" s="4">
-        <v>69.900000000000006</v>
+        <v>7.8</v>
       </c>
       <c r="G37" s="4">
         <f t="shared" si="0"/>
-        <v>179.4020463127473</v>
+        <v>27.858690476190475</v>
       </c>
       <c r="H37" s="4">
-        <v>2.5665528800106907</v>
+        <v>3.5716269841269841</v>
       </c>
       <c r="I37" s="4">
-        <v>16.517880434982189</v>
+        <v>8.3962301587301589</v>
       </c>
       <c r="J37" s="4">
-        <v>4.6908947361999895E-2</v>
+        <v>0.18598998534271072</v>
       </c>
       <c r="K37" s="4">
-        <v>0.790220820470381</v>
+        <v>0.81178351681189653</v>
       </c>
       <c r="L37" s="4">
-        <v>0.37212898649230708</v>
+        <v>0.52736527723002802</v>
       </c>
       <c r="M37" s="4">
-        <v>1.5442920504716013E-2</v>
+        <v>0.14194511087682182</v>
       </c>
       <c r="N37" s="4">
-        <v>1.6479222147329949E-2</v>
+        <v>0.18379905868258012</v>
       </c>
       <c r="O37" s="4">
-        <v>8.1960334236929083E-2</v>
+        <v>0.31330849707515324</v>
       </c>
       <c r="P37" s="4">
-        <v>0.89103962719522123</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="Q37" s="4">
-        <v>0.88516201044803933</v>
+        <v>0.21130952380952381</v>
       </c>
       <c r="R37" s="4">
-        <v>0.72325703478675041</v>
+        <v>0.12440476190476191</v>
       </c>
       <c r="S37" s="4">
-        <v>2.0970696381531608</v>
+        <v>44.487990941838689</v>
       </c>
       <c r="T37" s="4">
-        <v>0.14572220106266448</v>
+        <v>4.7740069967063023E-2</v>
       </c>
       <c r="U37" s="4">
-        <v>0.12688972228385864</v>
+        <v>4.5643054606097397E-2</v>
       </c>
       <c r="V37" s="4">
-        <v>0.16544324803252672</v>
+        <v>4.9621224076086837E-2</v>
       </c>
       <c r="W37" s="4">
-        <v>0.69909729694520339</v>
+        <v>0.96069335274550072</v>
       </c>
       <c r="X37" s="4">
-        <v>8.2300045230058423</v>
+        <v>3452.7047951571535</v>
       </c>
       <c r="Y37" s="4">
-        <v>2.8456560529720871</v>
+        <v>55.379482990065114</v>
       </c>
       <c r="Z37" s="4">
-        <v>0.83325915180913113</v>
+        <v>0.982709961572094</v>
       </c>
       <c r="AA37" s="4">
-        <v>0.69880771729209734</v>
+        <v>0.5261323289898826</v>
       </c>
       <c r="AB37" s="4">
-        <v>0.49149015710703042</v>
+        <v>0.37979186046120172</v>
       </c>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.25">
@@ -10653,83 +10640,83 @@
         <v>138</v>
       </c>
       <c r="C38" s="4">
-        <v>0.19969624870000002</v>
+        <v>0.23974182329999999</v>
       </c>
       <c r="D38" s="4">
-        <v>0.18953356179999997</v>
+        <v>0.19814061499999999</v>
       </c>
       <c r="E38" s="4">
-        <v>9.1846367999999998E-3</v>
+        <v>3.3091224900000001E-2</v>
       </c>
       <c r="F38" s="4">
-        <v>7.8</v>
+        <v>22.1</v>
       </c>
       <c r="G38" s="4">
         <f t="shared" si="0"/>
-        <v>27.858690476190475</v>
+        <v>97.919628035008486</v>
       </c>
       <c r="H38" s="4">
-        <v>3.5716269841269841</v>
+        <v>4.4307523997741391</v>
       </c>
       <c r="I38" s="4">
-        <v>8.3962301587301589</v>
+        <v>6.5038476378693773</v>
       </c>
       <c r="J38" s="4">
-        <v>0.18598998534271072</v>
+        <v>9.5034179789614565E-2</v>
       </c>
       <c r="K38" s="4">
-        <v>0.81178351681189653</v>
+        <v>0.75917050307432365</v>
       </c>
       <c r="L38" s="4">
-        <v>0.52736527723002802</v>
+        <v>0.41912574248703927</v>
       </c>
       <c r="M38" s="4">
-        <v>0.14194511087682182</v>
+        <v>4.8971738069265948E-2</v>
       </c>
       <c r="N38" s="4">
-        <v>0.18379905868258012</v>
+        <v>5.5465360590522796E-2</v>
       </c>
       <c r="O38" s="4">
-        <v>0.31330849707515324</v>
+        <v>0.15156585977002163</v>
       </c>
       <c r="P38" s="4">
-        <v>0.47499999999999998</v>
+        <v>0.77846414455110113</v>
       </c>
       <c r="Q38" s="4">
-        <v>0.21130952380952381</v>
+        <v>0.75387822322604925</v>
       </c>
       <c r="R38" s="4">
-        <v>0.12440476190476191</v>
+        <v>0.48519951063429323</v>
       </c>
       <c r="S38" s="4">
-        <v>44.487990941838689</v>
+        <v>2.4958270151909341</v>
       </c>
       <c r="T38" s="4">
-        <v>4.7740069967063023E-2</v>
+        <v>2.6066928288092481</v>
       </c>
       <c r="U38" s="4">
-        <v>4.5643054606097397E-2</v>
+        <v>0.64244999298879057</v>
       </c>
       <c r="V38" s="4">
-        <v>4.9621224076086837E-2</v>
+        <v>4.9925554177686511</v>
       </c>
       <c r="W38" s="4">
-        <v>0.96069335274550072</v>
+        <v>0.69625580753506977</v>
       </c>
       <c r="X38" s="4">
-        <v>3452.7047951571535</v>
+        <v>10.644285072484026</v>
       </c>
       <c r="Y38" s="4">
-        <v>55.379482990065114</v>
+        <v>3.1659836414013287</v>
       </c>
       <c r="Z38" s="4">
-        <v>0.982709961572094</v>
+        <v>0.71576622266484669</v>
       </c>
       <c r="AA38" s="4">
-        <v>0.5261323289898826</v>
+        <v>0.74512732373297808</v>
       </c>
       <c r="AB38" s="4">
-        <v>0.37979186046120172</v>
+        <v>0.57591189403925003</v>
       </c>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.25">
@@ -10740,83 +10727,83 @@
         <v>139</v>
       </c>
       <c r="C39" s="4">
-        <v>0.23974182329999999</v>
+        <v>0.21567765370000003</v>
       </c>
       <c r="D39" s="4">
-        <v>0.19814061499999999</v>
+        <v>0.18336882540000002</v>
       </c>
       <c r="E39" s="4">
-        <v>3.3091224900000001E-2</v>
+        <v>3.1175513100000003E-2</v>
       </c>
       <c r="F39" s="4">
-        <v>22.1</v>
+        <v>7.9</v>
       </c>
       <c r="G39" s="4">
         <f t="shared" si="0"/>
-        <v>97.919628035008486</v>
+        <v>36.348150793650795</v>
       </c>
       <c r="H39" s="4">
-        <v>4.4307523997741391</v>
+        <v>4.6010317460317456</v>
       </c>
       <c r="I39" s="4">
-        <v>6.5038476378693773</v>
+        <v>13.309325396825397</v>
       </c>
       <c r="J39" s="4">
-        <v>9.5034179789614565E-2</v>
+        <v>0.23638315826858411</v>
       </c>
       <c r="K39" s="4">
-        <v>0.75917050307432365</v>
+        <v>0.78975571361066033</v>
       </c>
       <c r="L39" s="4">
-        <v>0.41912574248703927</v>
+        <v>0.48151378677935774</v>
       </c>
       <c r="M39" s="4">
-        <v>4.8971738069265948E-2</v>
+        <v>0.10075218434489881</v>
       </c>
       <c r="N39" s="4">
-        <v>5.5465360590522796E-2</v>
+        <v>0.11230385984582147</v>
       </c>
       <c r="O39" s="4">
-        <v>0.15156585977002163</v>
+        <v>0.15542578693822412</v>
       </c>
       <c r="P39" s="4">
-        <v>0.77846414455110113</v>
+        <v>0.69230158730158742</v>
       </c>
       <c r="Q39" s="4">
-        <v>0.75387822322604925</v>
+        <v>0.57658730158730154</v>
       </c>
       <c r="R39" s="4">
-        <v>0.48519951063429323</v>
+        <v>0.41261904761904766</v>
       </c>
       <c r="S39" s="4">
-        <v>2.4958270151909341</v>
+        <v>7.8512653404385319E-2</v>
       </c>
       <c r="T39" s="4">
-        <v>2.6066928288092481</v>
+        <v>0.19495607682197308</v>
       </c>
       <c r="U39" s="4">
-        <v>0.64244999298879057</v>
+        <v>0.10577922714685954</v>
       </c>
       <c r="V39" s="4">
-        <v>4.9925554177686511</v>
+        <v>0.20501818900421992</v>
       </c>
       <c r="W39" s="4">
-        <v>0.69625580753506977</v>
+        <v>0.83213610814006578</v>
       </c>
       <c r="X39" s="4">
-        <v>10.644285072484026</v>
+        <v>1.5514575376824314E-2</v>
       </c>
       <c r="Y39" s="4">
-        <v>3.1659836414013287</v>
+        <v>0.10994411120359134</v>
       </c>
       <c r="Z39" s="4">
-        <v>0.71576622266484669</v>
+        <v>0.92331226063380867</v>
       </c>
       <c r="AA39" s="4">
-        <v>0.74512732373297808</v>
+        <v>0.55602725031492928</v>
       </c>
       <c r="AB39" s="4">
-        <v>0.57591189403925003</v>
+        <v>0.4277746845721902</v>
       </c>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.25">
@@ -10827,83 +10814,83 @@
         <v>140</v>
       </c>
       <c r="C40" s="4">
-        <v>0.21567765370000003</v>
+        <v>0.53747971059999999</v>
       </c>
       <c r="D40" s="4">
-        <v>0.18336882540000002</v>
+        <v>0.44384184350000011</v>
       </c>
       <c r="E40" s="4">
-        <v>3.1175513100000003E-2</v>
+        <v>8.1656025499999993E-2</v>
       </c>
       <c r="F40" s="4">
-        <v>7.9</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="G40" s="4">
         <f t="shared" si="0"/>
-        <v>36.348150793650795</v>
+        <v>104.02106481603093</v>
       </c>
       <c r="H40" s="4">
-        <v>4.6010317460317456</v>
+        <v>2.8343614391289078</v>
       </c>
       <c r="I40" s="4">
-        <v>13.309325396825397</v>
+        <v>5.3615901331546905</v>
       </c>
       <c r="J40" s="4">
-        <v>0.23638315826858411</v>
+        <v>7.1994709703635765E-2</v>
       </c>
       <c r="K40" s="4">
-        <v>0.78975571361066033</v>
+        <v>0.6934022269939355</v>
       </c>
       <c r="L40" s="4">
-        <v>0.48151378677935774</v>
+        <v>0.21590302079609022</v>
       </c>
       <c r="M40" s="4">
-        <v>0.10075218434489881</v>
+        <v>0.22372059353213197</v>
       </c>
       <c r="N40" s="4">
-        <v>0.11230385984582147</v>
+        <v>0.31470913624665764</v>
       </c>
       <c r="O40" s="4">
-        <v>0.15542578693822412</v>
+        <v>1.8768926058435522</v>
       </c>
       <c r="P40" s="4">
-        <v>0.69230158730158742</v>
+        <v>0.33190901081667645</v>
       </c>
       <c r="Q40" s="4">
-        <v>0.57658730158730154</v>
+        <v>6.5190649957253363E-2</v>
       </c>
       <c r="R40" s="4">
-        <v>0.41261904761904766</v>
+        <v>3.8842045999541261E-2</v>
       </c>
       <c r="S40" s="4">
-        <v>7.8512653404385319E-2</v>
+        <v>0.6744875900150834</v>
       </c>
       <c r="T40" s="4">
-        <v>0.19495607682197308</v>
+        <v>4.4941944762157134E-2</v>
       </c>
       <c r="U40" s="4">
-        <v>0.10577922714685954</v>
+        <v>4.3272535186051439E-2</v>
       </c>
       <c r="V40" s="4">
-        <v>0.20501818900421992</v>
+        <v>4.6491821364662414E-2</v>
       </c>
       <c r="W40" s="4">
-        <v>0.83213610814006578</v>
+        <v>1.0379975109902173</v>
       </c>
       <c r="X40" s="4">
-        <v>1.5514575376824314E-2</v>
+        <v>0.72707761678989846</v>
       </c>
       <c r="Y40" s="4">
-        <v>0.10994411120359134</v>
+        <v>0.84913168947244044</v>
       </c>
       <c r="Z40" s="4">
-        <v>0.92331226063380867</v>
+        <v>1.0418576646506574</v>
       </c>
       <c r="AA40" s="4">
-        <v>0.55602725031492928</v>
+        <v>0.2902778427438627</v>
       </c>
       <c r="AB40" s="4">
-        <v>0.4277746845721902</v>
+        <v>9.7693153955795614E-2</v>
       </c>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.25">
@@ -10914,83 +10901,83 @@
         <v>141</v>
       </c>
       <c r="C41" s="4">
-        <v>0.53747971059999999</v>
+        <v>4.1759608300000001E-2</v>
       </c>
       <c r="D41" s="4">
-        <v>0.44384184350000011</v>
+        <v>3.2118336100000006E-2</v>
       </c>
       <c r="E41" s="4">
-        <v>8.1656025499999993E-2</v>
+        <v>3.3015795E-3</v>
       </c>
       <c r="F41" s="4">
-        <v>36.700000000000003</v>
+        <v>14.1</v>
       </c>
       <c r="G41" s="4">
         <f t="shared" si="0"/>
-        <v>104.02106481603093</v>
+        <v>23.941375939849618</v>
       </c>
       <c r="H41" s="4">
-        <v>2.8343614391289078</v>
+        <v>1.6979699248120297</v>
       </c>
       <c r="I41" s="4">
-        <v>5.3615901331546905</v>
+        <v>2.5709147869674185</v>
       </c>
       <c r="J41" s="4">
-        <v>7.1994709703635765E-2</v>
+        <v>0.12543068004544747</v>
       </c>
       <c r="K41" s="4">
-        <v>0.6934022269939355</v>
+        <v>0.68902381312595273</v>
       </c>
       <c r="L41" s="4">
-        <v>0.21590302079609022</v>
+        <v>0.33660023207252876</v>
       </c>
       <c r="M41" s="4">
-        <v>0.22372059353213197</v>
+        <v>0.18146168028866255</v>
       </c>
       <c r="N41" s="4">
-        <v>0.31470913624665764</v>
+        <v>0.20128013617351156</v>
       </c>
       <c r="O41" s="4">
-        <v>1.8768926058435522</v>
+        <v>0.39751043470954833</v>
       </c>
       <c r="P41" s="4">
-        <v>0.33190901081667645</v>
+        <v>0.69418546365914791</v>
       </c>
       <c r="Q41" s="4">
-        <v>6.5190649957253363E-2</v>
+        <v>0.67370927318295748</v>
       </c>
       <c r="R41" s="4">
-        <v>3.8842045999541261E-2</v>
+        <v>0.64035087719298234</v>
       </c>
       <c r="S41" s="4">
-        <v>0.6744875900150834</v>
+        <v>0.8830420839010289</v>
       </c>
       <c r="T41" s="4">
-        <v>4.4941944762157134E-2</v>
+        <v>1.134202191392109</v>
       </c>
       <c r="U41" s="4">
-        <v>4.3272535186051439E-2</v>
+        <v>0.33875439685453756</v>
       </c>
       <c r="V41" s="4">
-        <v>4.6491821364662414E-2</v>
+        <v>1.1938283168055377</v>
       </c>
       <c r="W41" s="4">
-        <v>1.0379975109902173</v>
+        <v>0.84469755530000956</v>
       </c>
       <c r="X41" s="4">
-        <v>0.72707761678989846</v>
+        <v>2.3949678693765031</v>
       </c>
       <c r="Y41" s="4">
-        <v>0.84913168947244044</v>
+        <v>1.4412503018881306</v>
       </c>
       <c r="Z41" s="4">
-        <v>1.0418576646506574</v>
+        <v>1.0189126975982474</v>
       </c>
       <c r="AA41" s="4">
-        <v>0.2902778427438627</v>
+        <v>0.7243655494881468</v>
       </c>
       <c r="AB41" s="4">
-        <v>9.7693153955795614E-2</v>
+        <v>0.56632799209960782</v>
       </c>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.25">
@@ -11001,83 +10988,83 @@
         <v>142</v>
       </c>
       <c r="C42" s="4">
-        <v>4.1759608300000001E-2</v>
+        <v>450.33376684979993</v>
       </c>
       <c r="D42" s="4">
-        <v>3.2118336100000006E-2</v>
+        <v>333.44868476139999</v>
       </c>
       <c r="E42" s="4">
-        <v>3.3015795E-3</v>
+        <v>116.87164290149997</v>
       </c>
       <c r="F42" s="4">
-        <v>14.1</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="G42" s="4">
         <f t="shared" si="0"/>
-        <v>23.941375939849618</v>
+        <v>191.58209592310459</v>
       </c>
       <c r="H42" s="4">
-        <v>1.6979699248120297</v>
+        <v>5.7705450579248367</v>
       </c>
       <c r="I42" s="4">
-        <v>2.5709147869674185</v>
+        <v>80.675782126761689</v>
       </c>
       <c r="J42" s="4">
-        <v>0.12543068004544747</v>
+        <v>7.9005787902035982E-2</v>
       </c>
       <c r="K42" s="4">
-        <v>0.68902381312595273</v>
+        <v>0.86856618780301376</v>
       </c>
       <c r="L42" s="4">
-        <v>0.33660023207252876</v>
+        <v>0.56748533663885659</v>
       </c>
       <c r="M42" s="4">
-        <v>0.18146168028866255</v>
+        <v>6.0088614364198333E-3</v>
       </c>
       <c r="N42" s="4">
-        <v>0.20128013617351156</v>
+        <v>6.0238022462983636E-3</v>
       </c>
       <c r="O42" s="4">
-        <v>0.39751043470954833</v>
+        <v>6.4272659574534695E-3</v>
       </c>
       <c r="P42" s="4">
-        <v>0.69418546365914791</v>
+        <v>0.98280299164200113</v>
       </c>
       <c r="Q42" s="4">
-        <v>0.67370927318295748</v>
+        <v>0.98280299164200113</v>
       </c>
       <c r="R42" s="4">
-        <v>0.64035087719298234</v>
+        <v>0.97923156307057224</v>
       </c>
       <c r="S42" s="4">
-        <v>0.8830420839010289</v>
+        <v>2.2288994253205692</v>
       </c>
       <c r="T42" s="4">
-        <v>1.134202191392109</v>
+        <v>4.7354080884252962E-2</v>
       </c>
       <c r="U42" s="4">
-        <v>0.33875439685453756</v>
+        <v>4.5472844324300155E-2</v>
       </c>
       <c r="V42" s="4">
-        <v>1.1938283168055377</v>
+        <v>5.0176055372615491E-2</v>
       </c>
       <c r="W42" s="4">
-        <v>0.84469755530000956</v>
+        <v>0.40693623821038233</v>
       </c>
       <c r="X42" s="4">
-        <v>2.3949678693765031</v>
+        <v>10.51764708291358</v>
       </c>
       <c r="Y42" s="4">
-        <v>1.4412503018881306</v>
+        <v>3.1753942873304259</v>
       </c>
       <c r="Z42" s="4">
-        <v>1.0189126975982474</v>
+        <v>0.48608947766226862</v>
       </c>
       <c r="AA42" s="4">
-        <v>0.7243655494881468</v>
+        <v>0.8807500273883363</v>
       </c>
       <c r="AB42" s="4">
-        <v>0.56632799209960782</v>
+        <v>0.77801841063682287</v>
       </c>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.25">
@@ -11088,83 +11075,81 @@
         <v>143</v>
       </c>
       <c r="C43" s="4">
-        <v>450.33376684979993</v>
+        <v>115.9993761433</v>
       </c>
       <c r="D43" s="4">
-        <v>333.44868476139999</v>
+        <v>96.638251151900022</v>
       </c>
       <c r="E43" s="4">
-        <v>116.87164290149997</v>
+        <v>19.349649280100003</v>
       </c>
       <c r="F43" s="4">
-        <v>33.200000000000003</v>
+        <v>31.2</v>
       </c>
       <c r="G43" s="4">
         <f t="shared" si="0"/>
-        <v>191.58209592310459</v>
+        <v>121.25372434118381</v>
       </c>
       <c r="H43" s="4">
-        <v>5.7705450579248367</v>
+        <v>3.8863373186276862</v>
       </c>
       <c r="I43" s="4">
-        <v>80.675782126761689</v>
+        <v>38.625459111083188</v>
       </c>
       <c r="J43" s="4">
-        <v>7.9005787902035982E-2</v>
+        <v>0.17531723933389129</v>
       </c>
       <c r="K43" s="4">
-        <v>0.86856618780301376</v>
+        <v>0.84199510594384197</v>
       </c>
       <c r="L43" s="4">
-        <v>0.56748533663885659</v>
+        <v>0.39733482037697299</v>
       </c>
       <c r="M43" s="4">
-        <v>6.0088614364198333E-3</v>
+        <v>0.14817160070746158</v>
       </c>
       <c r="N43" s="4">
-        <v>6.0238022462983636E-3</v>
+        <v>0.16539630683074796</v>
       </c>
       <c r="O43" s="4">
-        <v>6.4272659574534695E-3</v>
+        <v>0.58041376180622684</v>
       </c>
       <c r="P43" s="4">
-        <v>0.98280299164200113</v>
+        <v>0.67806196546057707</v>
       </c>
       <c r="Q43" s="4">
-        <v>0.98280299164200113</v>
+        <v>0.63437545115958793</v>
       </c>
       <c r="R43" s="4">
-        <v>0.97923156307057224</v>
+        <v>0.48982415092689424</v>
       </c>
       <c r="S43" s="4">
-        <v>2.2288994253205692</v>
+        <v>240.88855879905842</v>
       </c>
       <c r="T43" s="4">
-        <v>4.7354080884252962E-2</v>
+        <v>6.5242491093508193</v>
       </c>
       <c r="U43" s="4">
-        <v>4.5472844324300155E-2</v>
-      </c>
-      <c r="V43" s="4">
-        <v>5.0176055372615491E-2</v>
-      </c>
+        <v>0.64279866168165145</v>
+      </c>
+      <c r="V43" s="4"/>
       <c r="W43" s="4">
-        <v>0.40693623821038233</v>
+        <v>0.79804206334967009</v>
       </c>
       <c r="X43" s="4">
-        <v>10.51764708291358</v>
+        <v>315806.68635012064</v>
       </c>
       <c r="Y43" s="4">
-        <v>3.1753942873304259</v>
+        <v>513.08280285369528</v>
       </c>
       <c r="Z43" s="4">
-        <v>0.48608947766226862</v>
+        <v>0.98064527247616928</v>
       </c>
       <c r="AA43" s="4">
-        <v>0.8807500273883363</v>
+        <v>0.34235049593126987</v>
       </c>
       <c r="AB43" s="4">
-        <v>0.77801841063682287</v>
+        <v>0.15661179774070494</v>
       </c>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.25">
@@ -11175,81 +11160,83 @@
         <v>144</v>
       </c>
       <c r="C44" s="4">
-        <v>115.9993761433</v>
+        <v>809.21715700540005</v>
       </c>
       <c r="D44" s="4">
-        <v>96.638251151900022</v>
+        <v>680.75769637890005</v>
       </c>
       <c r="E44" s="4">
-        <v>19.349649280100003</v>
+        <v>128.43631015169998</v>
       </c>
       <c r="F44" s="4">
-        <v>31.2</v>
+        <v>61.5</v>
       </c>
       <c r="G44" s="4">
         <f t="shared" si="0"/>
-        <v>121.25372434118381</v>
+        <v>281.10188793418644</v>
       </c>
       <c r="H44" s="4">
-        <v>3.8863373186276862</v>
+        <v>4.5707624054339258</v>
       </c>
       <c r="I44" s="4">
-        <v>38.625459111083188</v>
+        <v>58.467167021242652</v>
       </c>
       <c r="J44" s="4">
-        <v>0.17531723933389129</v>
+        <v>5.1443408783465448E-2</v>
       </c>
       <c r="K44" s="4">
-        <v>0.84199510594384197</v>
+        <v>0.84998794460959282</v>
       </c>
       <c r="L44" s="4">
-        <v>0.39733482037697299</v>
+        <v>0.63137723635391008</v>
       </c>
       <c r="M44" s="4">
-        <v>0.14817160070746158</v>
+        <v>4.1649023623875885E-3</v>
       </c>
       <c r="N44" s="4">
-        <v>0.16539630683074796</v>
+        <v>4.2001872287565677E-3</v>
       </c>
       <c r="O44" s="4">
-        <v>0.58041376180622684</v>
+        <v>6.1943559741514413E-3</v>
       </c>
       <c r="P44" s="4">
-        <v>0.67806196546057707</v>
+        <v>0.98121832635469308</v>
       </c>
       <c r="Q44" s="4">
-        <v>0.63437545115958793</v>
+        <v>0.98121832635469308</v>
       </c>
       <c r="R44" s="4">
-        <v>0.48982415092689424</v>
+        <v>0.96439162666859257</v>
       </c>
       <c r="S44" s="4">
-        <v>240.88855879905842</v>
+        <v>0.67805221444505148</v>
       </c>
       <c r="T44" s="4">
-        <v>6.5242491093508193</v>
+        <v>8.3609699341431476E-2</v>
       </c>
       <c r="U44" s="4">
-        <v>0.64279866168165145</v>
-      </c>
-      <c r="V44" s="4"/>
+        <v>7.6791959065247786E-2</v>
+      </c>
+      <c r="V44" s="4">
+        <v>9.4741947473706026E-2</v>
+      </c>
       <c r="W44" s="4">
-        <v>0.79804206334967009</v>
+        <v>0.26930344639061288</v>
       </c>
       <c r="X44" s="4">
-        <v>315806.68635012064</v>
+        <v>1.3624176182892851</v>
       </c>
       <c r="Y44" s="4">
-        <v>513.08280285369528</v>
+        <v>1.141171631721845</v>
       </c>
       <c r="Z44" s="4">
-        <v>0.98064527247616928</v>
+        <v>0.34486470276608605</v>
       </c>
       <c r="AA44" s="4">
-        <v>0.34235049593126987</v>
+        <v>0.9408043045902541</v>
       </c>
       <c r="AB44" s="4">
-        <v>0.15661179774070494</v>
+        <v>0.88642555954552515</v>
       </c>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.25">
@@ -11260,83 +11247,83 @@
         <v>145</v>
       </c>
       <c r="C45" s="4">
-        <v>809.21715700540005</v>
+        <v>1.1056013275000001</v>
       </c>
       <c r="D45" s="4">
-        <v>680.75769637890005</v>
+        <v>0.88856906080000009</v>
       </c>
       <c r="E45" s="4">
-        <v>128.43631015169998</v>
+        <v>0.21330193719999996</v>
       </c>
       <c r="F45" s="4">
-        <v>61.5</v>
+        <v>20.5</v>
       </c>
       <c r="G45" s="4">
         <f t="shared" si="0"/>
-        <v>281.10188793418644</v>
+        <v>99.689049166889575</v>
       </c>
       <c r="H45" s="4">
-        <v>4.5707624054339258</v>
+        <v>4.8628804471653453</v>
       </c>
       <c r="I45" s="4">
-        <v>58.467167021242652</v>
+        <v>12.860895333689957</v>
       </c>
       <c r="J45" s="4">
-        <v>5.1443408783465448E-2</v>
+        <v>0.10980727625854844</v>
       </c>
       <c r="K45" s="4">
-        <v>0.84998794460959282</v>
+        <v>0.8132098920203843</v>
       </c>
       <c r="L45" s="4">
-        <v>0.63137723635391008</v>
+        <v>0.40383597809222926</v>
       </c>
       <c r="M45" s="4">
-        <v>4.1649023623875885E-3</v>
+        <v>0.17861473642796016</v>
       </c>
       <c r="N45" s="4">
-        <v>4.2001872287565677E-3</v>
+        <v>0.21693965405450188</v>
       </c>
       <c r="O45" s="4">
-        <v>6.1943559741514413E-3</v>
+        <v>0.68530323049959252</v>
       </c>
       <c r="P45" s="4">
-        <v>0.98121832635469308</v>
+        <v>0.52842672392443557</v>
       </c>
       <c r="Q45" s="4">
-        <v>0.98121832635469308</v>
+        <v>0.39027945357464811</v>
       </c>
       <c r="R45" s="4">
-        <v>0.96439162666859257</v>
+        <v>0.23091042824452437</v>
       </c>
       <c r="S45" s="4">
-        <v>0.67805221444505148</v>
+        <v>0.10976948454421516</v>
       </c>
       <c r="T45" s="4">
-        <v>8.3609699341431476E-2</v>
+        <v>0.30832797847747911</v>
       </c>
       <c r="U45" s="4">
-        <v>7.6791959065247786E-2</v>
+        <v>0.1553939761441934</v>
       </c>
       <c r="V45" s="4">
-        <v>9.4741947473706026E-2</v>
+        <v>0.33641551264310526</v>
       </c>
       <c r="W45" s="4">
-        <v>0.26930344639061288</v>
+        <v>0.93164786287340695</v>
       </c>
       <c r="X45" s="4">
-        <v>1.3624176182892851</v>
+        <v>2.6725246122632145E-2</v>
       </c>
       <c r="Y45" s="4">
-        <v>1.141171631721845</v>
+        <v>0.15887642711820033</v>
       </c>
       <c r="Z45" s="4">
-        <v>0.34486470276608605</v>
+        <v>1.0306734217597568</v>
       </c>
       <c r="AA45" s="4">
-        <v>0.9408043045902541</v>
+        <v>0.35042452290151965</v>
       </c>
       <c r="AB45" s="4">
-        <v>0.88642555954552515</v>
+        <v>0.18998479742435706</v>
       </c>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.25">
@@ -11347,83 +11334,83 @@
         <v>146</v>
       </c>
       <c r="C46" s="4">
-        <v>1.1056013275000001</v>
+        <v>0.64601142880000018</v>
       </c>
       <c r="D46" s="4">
-        <v>0.88856906080000009</v>
+        <v>0.56542382899999999</v>
       </c>
       <c r="E46" s="4">
-        <v>0.21330193719999996</v>
+        <v>7.8390990500000007E-2</v>
       </c>
       <c r="F46" s="4">
-        <v>20.5</v>
+        <v>13.7</v>
       </c>
       <c r="G46" s="4">
         <f t="shared" si="0"/>
-        <v>99.689049166889575</v>
+        <v>49.355101592851589</v>
       </c>
       <c r="H46" s="4">
-        <v>4.8628804471653453</v>
+        <v>3.6025621600621598</v>
       </c>
       <c r="I46" s="4">
-        <v>12.860895333689957</v>
+        <v>12.201209207459206</v>
       </c>
       <c r="J46" s="4">
-        <v>0.10980727625854844</v>
+        <v>0.16603160584823223</v>
       </c>
       <c r="K46" s="4">
-        <v>0.8132098920203843</v>
+        <v>0.83096621914016955</v>
       </c>
       <c r="L46" s="4">
-        <v>0.40383597809222926</v>
+        <v>0.42364986198521903</v>
       </c>
       <c r="M46" s="4">
-        <v>0.17861473642796016</v>
+        <v>0.14454902310471807</v>
       </c>
       <c r="N46" s="4">
-        <v>0.21693965405450188</v>
+        <v>0.15829991819749864</v>
       </c>
       <c r="O46" s="4">
-        <v>0.68530323049959252</v>
+        <v>0.28996064512834285</v>
       </c>
       <c r="P46" s="4">
-        <v>0.52842672392443557</v>
+        <v>0.71267579642579637</v>
       </c>
       <c r="Q46" s="4">
-        <v>0.39027945357464811</v>
+        <v>0.64695027195027199</v>
       </c>
       <c r="R46" s="4">
-        <v>0.23091042824452437</v>
+        <v>0.59517676767676764</v>
       </c>
       <c r="S46" s="4">
-        <v>0.10976948454421516</v>
+        <v>84.919856717112367</v>
       </c>
       <c r="T46" s="4">
-        <v>0.30832797847747911</v>
+        <v>1.6219344117909329</v>
       </c>
       <c r="U46" s="4">
-        <v>0.1553939761441934</v>
+        <v>0.49643761548694176</v>
       </c>
       <c r="V46" s="4">
-        <v>0.33641551264310526</v>
+        <v>2.4173774948754381</v>
       </c>
       <c r="W46" s="4">
-        <v>0.93164786287340695</v>
+        <v>0.85494126127905079</v>
       </c>
       <c r="X46" s="4">
-        <v>2.6725246122632145E-2</v>
+        <v>23127.297833131444</v>
       </c>
       <c r="Y46" s="4">
-        <v>0.15887642711820033</v>
+        <v>141.25525434975421</v>
       </c>
       <c r="Z46" s="4">
-        <v>1.0306734217597568</v>
+        <v>0.99579769202510848</v>
       </c>
       <c r="AA46" s="4">
-        <v>0.35042452290151965</v>
+        <v>0.40519444032289503</v>
       </c>
       <c r="AB46" s="4">
-        <v>0.18998479742435706</v>
+        <v>0.20053396490110659</v>
       </c>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.25">
@@ -11434,83 +11421,83 @@
         <v>147</v>
       </c>
       <c r="C47" s="4">
-        <v>0.64601142880000018</v>
+        <v>1220.5954696176002</v>
       </c>
       <c r="D47" s="4">
-        <v>0.56542382899999999</v>
+        <v>989.61790052600008</v>
       </c>
       <c r="E47" s="4">
-        <v>7.8390990500000007E-2</v>
+        <v>230.93374256210001</v>
       </c>
       <c r="F47" s="4">
-        <v>13.7</v>
+        <v>88.8</v>
       </c>
       <c r="G47" s="4">
         <f t="shared" si="0"/>
-        <v>49.355101592851589</v>
+        <v>630.49235662349588</v>
       </c>
       <c r="H47" s="4">
-        <v>3.6025621600621598</v>
+        <v>7.1001391511654948</v>
       </c>
       <c r="I47" s="4">
-        <v>12.201209207459206</v>
+        <v>63.446079994213221</v>
       </c>
       <c r="J47" s="4">
-        <v>0.16603160584823223</v>
+        <v>4.3002457468906172E-2</v>
       </c>
       <c r="K47" s="4">
-        <v>0.83096621914016955</v>
+        <v>0.80338481158805808</v>
       </c>
       <c r="L47" s="4">
-        <v>0.42364986198521903</v>
+        <v>0.49663628761173334</v>
       </c>
       <c r="M47" s="4">
-        <v>0.14454902310471807</v>
+        <v>2.1443246244492775E-4</v>
       </c>
       <c r="N47" s="4">
-        <v>0.15829991819749864</v>
+        <v>2.1486013691851801E-4</v>
       </c>
       <c r="O47" s="4">
-        <v>0.28996064512834285</v>
+        <v>2.5326219391371102E-4</v>
       </c>
       <c r="P47" s="4">
-        <v>0.71267579642579637</v>
+        <v>0.99906542056074765</v>
       </c>
       <c r="Q47" s="4">
-        <v>0.64695027195027199</v>
+        <v>0.99906542056074765</v>
       </c>
       <c r="R47" s="4">
-        <v>0.59517676767676764</v>
+        <v>0.99906542056074765</v>
       </c>
       <c r="S47" s="4">
-        <v>84.919856717112367</v>
+        <v>3.4773234456220798</v>
       </c>
       <c r="T47" s="4">
-        <v>1.6219344117909329</v>
+        <v>8.0886458207376999E-2</v>
       </c>
       <c r="U47" s="4">
-        <v>0.49643761548694176</v>
+        <v>7.1635469885243386E-2</v>
       </c>
       <c r="V47" s="4">
-        <v>2.4173774948754381</v>
+        <v>8.5462027166742671E-2</v>
       </c>
       <c r="W47" s="4">
-        <v>0.85494126127905079</v>
+        <v>0.25930584321068406</v>
       </c>
       <c r="X47" s="4">
-        <v>23127.297833131444</v>
+        <v>22.699448230642123</v>
       </c>
       <c r="Y47" s="4">
-        <v>141.25525434975421</v>
+        <v>4.7255990725219608</v>
       </c>
       <c r="Z47" s="4">
-        <v>0.99579769202510848</v>
+        <v>0.3058697835630676</v>
       </c>
       <c r="AA47" s="4">
-        <v>0.40519444032289503</v>
+        <v>0.95367880689077267</v>
       </c>
       <c r="AB47" s="4">
-        <v>0.20053396490110659</v>
+        <v>0.90963471384771422</v>
       </c>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.25">
@@ -11521,425 +11508,413 @@
         <v>148</v>
       </c>
       <c r="C48" s="4">
-        <v>1220.5954696176002</v>
+        <v>1774.725627631</v>
       </c>
       <c r="D48" s="4">
-        <v>989.61790052600008</v>
+        <v>1365.4583503241001</v>
       </c>
       <c r="E48" s="4">
-        <v>230.93374256210001</v>
+        <v>409.22954545970003</v>
       </c>
       <c r="F48" s="4">
-        <v>88.8</v>
+        <v>55</v>
       </c>
       <c r="G48" s="4">
         <f t="shared" si="0"/>
-        <v>630.49235662349588</v>
+        <v>422.81863827994732</v>
       </c>
       <c r="H48" s="4">
-        <v>7.1001391511654948</v>
+        <v>7.687611605089951</v>
       </c>
       <c r="I48" s="4">
-        <v>63.446079994213221</v>
+        <v>97.899230245570195</v>
       </c>
       <c r="J48" s="4">
-        <v>4.3002457468906172E-2</v>
+        <v>5.5814414336217401E-2</v>
       </c>
       <c r="K48" s="4">
-        <v>0.80338481158805808</v>
+        <v>0.81248263094516082</v>
       </c>
       <c r="L48" s="4">
-        <v>0.49663628761173334</v>
+        <v>0.46691210530670491</v>
       </c>
       <c r="M48" s="4">
-        <v>2.1443246244492775E-4</v>
+        <v>1.1720703594715219E-3</v>
       </c>
       <c r="N48" s="4">
-        <v>2.1486013691851801E-4</v>
+        <v>1.1864176721000763E-3</v>
       </c>
       <c r="O48" s="4">
-        <v>2.5326219391371102E-4</v>
+        <v>2.1264430249789464E-3</v>
       </c>
       <c r="P48" s="4">
-        <v>0.99906542056074765</v>
+        <v>0.99372807017543852</v>
       </c>
       <c r="Q48" s="4">
-        <v>0.99906542056074765</v>
+        <v>0.99372807017543852</v>
       </c>
       <c r="R48" s="4">
-        <v>0.99906542056074765</v>
+        <v>0.9905701754385966</v>
       </c>
       <c r="S48" s="4">
-        <v>3.4773234456220798</v>
+        <v>4.2052790880771536</v>
       </c>
       <c r="T48" s="4">
-        <v>8.0886458207376999E-2</v>
+        <v>7.1595338752142634E-2</v>
       </c>
       <c r="U48" s="4">
-        <v>7.1635469885243386E-2</v>
+        <v>6.6759527425791512E-2</v>
       </c>
       <c r="V48" s="4">
-        <v>8.5462027166742671E-2</v>
+        <v>7.6900971222773909E-2</v>
       </c>
       <c r="W48" s="4">
-        <v>0.25930584321068406</v>
+        <v>0.33229777000928473</v>
       </c>
       <c r="X48" s="4">
-        <v>22.699448230642123</v>
+        <v>35.14464664774048</v>
       </c>
       <c r="Y48" s="4">
-        <v>4.7255990725219608</v>
+        <v>5.8509094868032259</v>
       </c>
       <c r="Z48" s="4">
-        <v>0.3058697835630676</v>
+        <v>0.40719783597155335</v>
       </c>
       <c r="AA48" s="4">
-        <v>0.95367880689077267</v>
+        <v>0.91451448591876494</v>
       </c>
       <c r="AB48" s="4">
-        <v>0.90963471384771422</v>
-      </c>
-    </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A49" s="12">
-        <v>48</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C49" s="4">
-        <v>1774.725627631</v>
-      </c>
-      <c r="D49" s="4">
-        <v>1365.4583503241001</v>
-      </c>
-      <c r="E49" s="4">
-        <v>409.22954545970003</v>
-      </c>
-      <c r="F49" s="4">
-        <v>55</v>
-      </c>
-      <c r="G49" s="4">
-        <f t="shared" si="0"/>
-        <v>422.81863827994732</v>
-      </c>
-      <c r="H49" s="4">
-        <v>7.687611605089951</v>
-      </c>
-      <c r="I49" s="4">
-        <v>97.899230245570195</v>
-      </c>
-      <c r="J49" s="4">
-        <v>5.5814414336217401E-2</v>
-      </c>
-      <c r="K49" s="4">
-        <v>0.81248263094516082</v>
-      </c>
-      <c r="L49" s="4">
-        <v>0.46691210530670491</v>
-      </c>
-      <c r="M49" s="4">
-        <v>1.1720703594715219E-3</v>
-      </c>
-      <c r="N49" s="4">
-        <v>1.1864176721000763E-3</v>
-      </c>
-      <c r="O49" s="4">
-        <v>2.1264430249789464E-3</v>
-      </c>
-      <c r="P49" s="4">
-        <v>0.99372807017543852</v>
-      </c>
-      <c r="Q49" s="4">
-        <v>0.99372807017543852</v>
-      </c>
-      <c r="R49" s="4">
-        <v>0.9905701754385966</v>
-      </c>
-      <c r="S49" s="4">
-        <v>4.2052790880771536</v>
-      </c>
-      <c r="T49" s="4">
-        <v>7.1595338752142634E-2</v>
-      </c>
-      <c r="U49" s="4">
-        <v>6.6759527425791512E-2</v>
-      </c>
-      <c r="V49" s="4">
-        <v>7.6900971222773909E-2</v>
-      </c>
-      <c r="W49" s="4">
-        <v>0.33229777000928473</v>
-      </c>
-      <c r="X49" s="4">
-        <v>35.14464664774048</v>
-      </c>
-      <c r="Y49" s="4">
-        <v>5.8509094868032259</v>
-      </c>
-      <c r="Z49" s="4">
-        <v>0.40719783597155335</v>
-      </c>
-      <c r="AA49" s="4">
-        <v>0.91451448591876494</v>
-      </c>
-      <c r="AB49" s="4">
         <v>0.837157740550316</v>
       </c>
     </row>
-    <row r="50" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
-      <c r="B50" s="15" t="s">
+    <row r="49" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="13"/>
+      <c r="B49" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="C50" s="15">
-        <v>127.93773155909793</v>
-      </c>
-      <c r="D50" s="15">
-        <v>103.2444198103625</v>
-      </c>
-      <c r="E50" s="15">
-        <v>24.68418219610416</v>
-      </c>
-      <c r="F50" s="15">
-        <v>25.229166666666668</v>
-      </c>
-      <c r="G50" s="15">
-        <f>AVERAGE(G2:G49)</f>
-        <v>119.74785779629276</v>
-      </c>
-      <c r="H50" s="15">
-        <v>3.9685788478103015</v>
-      </c>
-      <c r="I50" s="15">
-        <v>24.651764548288966</v>
-      </c>
-      <c r="J50" s="15">
-        <v>0.16346022785386799</v>
-      </c>
-      <c r="K50" s="15">
-        <v>0.80755552086868476</v>
-      </c>
-      <c r="L50" s="15">
-        <v>0.48600671842985138</v>
-      </c>
-      <c r="M50" s="15">
-        <v>9.9954415756624906E-2</v>
-      </c>
-      <c r="N50" s="15">
-        <v>0.12355547407839151</v>
-      </c>
-      <c r="O50" s="15">
-        <v>0.3483152521615131</v>
-      </c>
-      <c r="P50" s="15">
-        <v>0.70978383558550184</v>
-      </c>
-      <c r="Q50" s="15">
-        <v>0.66044009766453049</v>
-      </c>
-      <c r="R50" s="15">
-        <v>0.58758691515531447</v>
-      </c>
-      <c r="S50" s="15">
-        <v>242.85806259018668</v>
-      </c>
-      <c r="T50" s="15">
-        <v>0.90133676242001748</v>
-      </c>
-      <c r="U50" s="15">
-        <v>0.24970734273331593</v>
-      </c>
-      <c r="V50" s="15">
+      <c r="C49" s="14">
+        <f t="shared" ref="C49:Y49" si="1">AVERAGE(C2:C48)</f>
+        <v>130.62697751658297</v>
+      </c>
+      <c r="D49" s="14">
+        <f t="shared" si="1"/>
+        <v>105.41285510364042</v>
+      </c>
+      <c r="E49" s="14">
+        <f t="shared" si="1"/>
+        <v>25.204896875891482</v>
+      </c>
+      <c r="F49" s="14">
+        <f t="shared" si="1"/>
+        <v>25.504255319148932</v>
+      </c>
+      <c r="G49" s="14">
+        <f t="shared" si="1"/>
+        <v>121.52838490012699</v>
+      </c>
+      <c r="H49" s="14">
+        <f t="shared" si="1"/>
+        <v>3.9906346096369454</v>
+      </c>
+      <c r="I49" s="14">
+        <f t="shared" si="1"/>
+        <v>24.952577026155151</v>
+      </c>
+      <c r="J49" s="14">
+        <f t="shared" si="1"/>
+        <v>0.1571792892575061</v>
+      </c>
+      <c r="K49" s="14">
+        <f t="shared" si="1"/>
+        <v>0.8043756257361423</v>
+      </c>
+      <c r="L49" s="14">
+        <f t="shared" si="1"/>
+        <v>0.48433869480085273</v>
+      </c>
+      <c r="M49" s="14">
+        <f t="shared" si="1"/>
+        <v>0.1004037066141215</v>
+      </c>
+      <c r="N49" s="14">
+        <f t="shared" si="1"/>
+        <v>0.12450691511294697</v>
+      </c>
+      <c r="O49" s="14">
+        <f t="shared" si="1"/>
+        <v>0.35404881613400735</v>
+      </c>
+      <c r="P49" s="14">
+        <f t="shared" si="1"/>
+        <v>0.70535653138802035</v>
+      </c>
+      <c r="Q49" s="14">
+        <f t="shared" si="1"/>
+        <v>0.65496292670277301</v>
+      </c>
+      <c r="R49" s="14">
+        <f t="shared" si="1"/>
+        <v>0.58055967648059503</v>
+      </c>
+      <c r="S49" s="14">
+        <f t="shared" si="1"/>
+        <v>244.07754982856414</v>
+      </c>
+      <c r="T49" s="14">
+        <f t="shared" si="1"/>
+        <v>0.5964290421759274</v>
+      </c>
+      <c r="U49" s="14">
+        <f t="shared" si="1"/>
+        <v>0.24193276932963703</v>
+      </c>
+      <c r="V49" s="14">
+        <f t="shared" si="1"/>
         <v>0.56670607252223548</v>
       </c>
-      <c r="W50" s="15">
-        <v>0.74525505326437658</v>
-      </c>
-      <c r="X50" s="15">
-        <v>1030282.223754467</v>
-      </c>
-      <c r="Y50" s="15">
-        <v>339.77245304311043</v>
-      </c>
-      <c r="Z50" s="15">
-        <v>0.89834097282249015</v>
-      </c>
-      <c r="AA50" s="15">
-        <v>0.6468933750105208</v>
-      </c>
-      <c r="AB50" s="15">
-        <v>0.50784559374174976</v>
+      <c r="W49" s="14">
+        <f t="shared" si="1"/>
+        <v>0.70556510715703202</v>
+      </c>
+      <c r="X49" s="14">
+        <f t="shared" si="1"/>
+        <v>1017699.9944800438</v>
+      </c>
+      <c r="Y49" s="14">
+        <f t="shared" si="1"/>
+        <v>327.16436270313596</v>
+      </c>
+      <c r="Z49" s="14">
+        <f>AVERAGE(Z2:Z48)</f>
+        <v>0.79478157678484873</v>
+      </c>
+      <c r="AA49" s="14">
+        <f t="shared" ref="AA49:AB49" si="2">AVERAGE(AA2:AA48)</f>
+        <v>0.6560957326556951</v>
+      </c>
+      <c r="AB49" s="14">
+        <f t="shared" si="2"/>
+        <v>0.51662754015034118</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A50" s="12"/>
+      <c r="B50" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C50" s="4">
+        <f t="shared" ref="C50:Y50" si="3">_xlfn.STDEV.P(C2:C48)</f>
+        <v>330.6958377892596</v>
+      </c>
+      <c r="D50" s="4">
+        <f t="shared" si="3"/>
+        <v>261.25034616907283</v>
+      </c>
+      <c r="E50" s="4">
+        <f t="shared" si="3"/>
+        <v>70.605426395759281</v>
+      </c>
+      <c r="F50" s="4">
+        <f t="shared" si="3"/>
+        <v>20.425307179614727</v>
+      </c>
+      <c r="G50" s="4">
+        <f t="shared" si="3"/>
+        <v>130.7641533960018</v>
+      </c>
+      <c r="H50" s="4">
+        <f t="shared" si="3"/>
+        <v>1.5235613870015527</v>
+      </c>
+      <c r="I50" s="4">
+        <f t="shared" si="3"/>
+        <v>21.873128265828491</v>
+      </c>
+      <c r="J50" s="4">
+        <f t="shared" si="3"/>
+        <v>0.10356994768916687</v>
+      </c>
+      <c r="K50" s="4">
+        <f t="shared" si="3"/>
+        <v>4.4178467553555374E-2</v>
+      </c>
+      <c r="L50" s="4">
+        <f t="shared" si="3"/>
+        <v>0.11739607509956262</v>
+      </c>
+      <c r="M50" s="4">
+        <f t="shared" si="3"/>
+        <v>8.6245927057627417E-2</v>
+      </c>
+      <c r="N50" s="4">
+        <f t="shared" si="3"/>
+        <v>0.12184800387546602</v>
+      </c>
+      <c r="O50" s="4">
+        <f t="shared" si="3"/>
+        <v>0.51778275325057277</v>
+      </c>
+      <c r="P50" s="4">
+        <f t="shared" si="3"/>
+        <v>0.25834968215625931</v>
+      </c>
+      <c r="Q50" s="4">
+        <f t="shared" si="3"/>
+        <v>0.31440149549317348</v>
+      </c>
+      <c r="R50" s="4">
+        <f t="shared" si="3"/>
+        <v>0.31900447615148386</v>
+      </c>
+      <c r="S50" s="4">
+        <f t="shared" si="3"/>
+        <v>782.36712109591167</v>
+      </c>
+      <c r="T50" s="4">
+        <f t="shared" si="3"/>
+        <v>1.0416716906473915</v>
+      </c>
+      <c r="U50" s="4">
+        <f t="shared" si="3"/>
+        <v>0.17033131013809374</v>
+      </c>
+      <c r="V50" s="4">
+        <f t="shared" si="3"/>
+        <v>0.86612378904314535</v>
+      </c>
+      <c r="W50" s="4">
+        <f t="shared" si="3"/>
+        <v>0.25074992548584835</v>
+      </c>
+      <c r="X50" s="4">
+        <f t="shared" si="3"/>
+        <v>4327583.544594897</v>
+      </c>
+      <c r="Y50" s="4">
+        <f t="shared" si="3"/>
+        <v>928.588306330563</v>
+      </c>
+      <c r="Z50" s="4">
+        <f>_xlfn.STDEV.P(Z2:Z48)</f>
+        <v>0.25668933170900671</v>
+      </c>
+      <c r="AA50" s="4">
+        <f t="shared" ref="AA50:AB50" si="4">_xlfn.STDEV.P(AA2:AA48)</f>
+        <v>0.24655593899837183</v>
+      </c>
+      <c r="AB50" s="4">
+        <f t="shared" si="4"/>
+        <v>0.26443334516560257</v>
       </c>
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A51" s="13"/>
+      <c r="A51" s="12"/>
       <c r="B51" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C51" s="4">
-        <v>327.75191125876665</v>
+        <f t="shared" ref="C51:Y51" si="5">SUM(C2:C48)</f>
+        <v>6139.4679432794001</v>
       </c>
       <c r="D51" s="4">
-        <v>258.94175271549631</v>
+        <f t="shared" si="5"/>
+        <v>4954.4041898711002</v>
       </c>
       <c r="E51" s="4">
-        <v>69.957224055037599</v>
+        <f t="shared" si="5"/>
+        <v>1184.6301531668996</v>
       </c>
       <c r="F51" s="4">
-        <v>20.299219590226176</v>
+        <f t="shared" si="5"/>
+        <v>1198.6999999999998</v>
       </c>
       <c r="G51" s="4">
-        <f>_xlfn.STDEV.P(G2:G49)</f>
-        <v>129.96935084344472</v>
+        <f t="shared" si="5"/>
+        <v>5711.8340903059689</v>
       </c>
       <c r="H51" s="4">
-        <v>1.5151711485762849</v>
+        <f t="shared" si="5"/>
+        <v>187.55982665293644</v>
       </c>
       <c r="I51" s="4">
-        <v>21.742109222629555</v>
+        <f t="shared" si="5"/>
+        <v>1172.7711202292921</v>
       </c>
       <c r="J51" s="4">
-        <v>0.11116393008348543</v>
+        <f t="shared" si="5"/>
+        <v>7.3874265951027862</v>
       </c>
       <c r="K51" s="4">
-        <v>4.8850048736037592E-2</v>
+        <f t="shared" si="5"/>
+        <v>37.805654409598688</v>
       </c>
       <c r="L51" s="4">
-        <v>0.1167282529951366</v>
+        <f t="shared" si="5"/>
+        <v>22.763918655640079</v>
       </c>
       <c r="M51" s="4">
-        <v>8.5398370177528812E-2</v>
+        <f t="shared" si="5"/>
+        <v>4.7189742108637107</v>
       </c>
       <c r="N51" s="4">
-        <v>0.12074837954500646</v>
+        <f t="shared" si="5"/>
+        <v>5.8518250103085077</v>
       </c>
       <c r="O51" s="4">
-        <v>0.5138663743426104</v>
+        <f t="shared" si="5"/>
+        <v>16.640294358298345</v>
       </c>
       <c r="P51" s="4">
-        <v>0.25743988559485265</v>
+        <f t="shared" si="5"/>
+        <v>33.151756975236957</v>
       </c>
       <c r="Q51" s="4">
-        <v>0.31336708930473173</v>
+        <f t="shared" si="5"/>
+        <v>30.783257555030332</v>
       </c>
       <c r="R51" s="4">
-        <v>0.31931917166812557</v>
+        <f t="shared" si="5"/>
+        <v>27.286304794587966</v>
       </c>
       <c r="S51" s="4">
-        <v>774.2197104249617</v>
+        <f t="shared" si="5"/>
+        <v>11471.644841942514</v>
       </c>
       <c r="T51" s="4">
-        <v>2.3306659604593922</v>
+        <f t="shared" si="5"/>
+        <v>28.032164982268586</v>
       </c>
       <c r="U51" s="4">
-        <v>0.17677440544013462</v>
+        <f t="shared" si="5"/>
+        <v>11.370840158492941</v>
       </c>
       <c r="V51" s="4">
-        <v>0.86612378904314535</v>
+        <f t="shared" si="5"/>
+        <v>22.101536828367184</v>
       </c>
       <c r="W51" s="4">
-        <v>0.3682449374964657</v>
+        <f t="shared" si="5"/>
+        <v>33.161560036380507</v>
       </c>
       <c r="X51" s="4">
-        <v>4283135.9757178547</v>
+        <f t="shared" si="5"/>
+        <v>47831899.740562059</v>
       </c>
       <c r="Y51" s="4">
-        <v>922.92115564669257</v>
+        <f t="shared" si="5"/>
+        <v>15376.72504704739</v>
       </c>
       <c r="Z51" s="4">
-        <v>0.75403613757550492</v>
+        <f>SUM(Z2:Z48)</f>
+        <v>37.354734108887889</v>
       </c>
       <c r="AA51" s="4">
-        <v>0.25199899879664484</v>
+        <f t="shared" ref="AA51:AB51" si="6">SUM(AA2:AA48)</f>
+        <v>30.836499434817672</v>
       </c>
       <c r="AB51" s="4">
-        <v>0.26850136817974862</v>
-      </c>
-    </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A52" s="13"/>
-      <c r="B52" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C52" s="4">
-        <v>6141.0111148367005</v>
-      </c>
-      <c r="D52" s="4">
-        <v>4955.7321508974001</v>
-      </c>
-      <c r="E52" s="4">
-        <v>1184.8407454129997</v>
-      </c>
-      <c r="F52" s="4">
-        <v>1211</v>
-      </c>
-      <c r="G52" s="4">
-        <f>SUM(G2:G49)</f>
-        <v>5747.8971742220529</v>
-      </c>
-      <c r="H52" s="4">
-        <v>190.49178469489448</v>
-      </c>
-      <c r="I52" s="4">
-        <v>1183.2846983178704</v>
-      </c>
-      <c r="J52" s="4">
-        <v>7.8460909369856635</v>
-      </c>
-      <c r="K52" s="4">
-        <v>38.762665001696867</v>
-      </c>
-      <c r="L52" s="4">
-        <v>23.328322484632867</v>
-      </c>
-      <c r="M52" s="4">
-        <v>4.7978119563179957</v>
-      </c>
-      <c r="N52" s="4">
-        <v>5.9306627557627927</v>
-      </c>
-      <c r="O52" s="4">
-        <v>16.719132103752628</v>
-      </c>
-      <c r="P52" s="4">
-        <v>34.069624108104087</v>
-      </c>
-      <c r="Q52" s="4">
-        <v>31.701124687897465</v>
-      </c>
-      <c r="R52" s="4">
-        <v>28.204171927455096</v>
-      </c>
-      <c r="S52" s="4">
-        <v>11657.18700432896</v>
-      </c>
-      <c r="T52" s="4">
-        <v>43.264164596160839</v>
-      </c>
-      <c r="U52" s="4">
-        <v>11.985952451199164</v>
-      </c>
-      <c r="V52" s="4">
-        <v>22.101536828367184</v>
-      </c>
-      <c r="W52" s="4">
-        <v>35.772242556690074</v>
-      </c>
-      <c r="X52" s="4">
-        <v>49453546.740214415</v>
-      </c>
-      <c r="Y52" s="4">
-        <v>16309.077746069301</v>
-      </c>
-      <c r="Z52" s="4">
-        <v>43.120366695479525</v>
-      </c>
-      <c r="AA52" s="4">
-        <v>31.050882000504998</v>
-      </c>
-      <c r="AB52" s="4">
-        <v>24.37658849960399</v>
+        <f t="shared" si="6"/>
+        <v>24.281494387066036</v>
       </c>
     </row>
   </sheetData>
@@ -11952,7 +11927,7 @@
   <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+      <selection activeCell="A51" sqref="A51:XFD51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11965,33 +11940,33 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" t="s">
         <v>150</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>151</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>152</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>153</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>154</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>155</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>156</v>
-      </c>
-      <c r="I1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B2" t="s">
         <v>41</v>
@@ -12020,7 +11995,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B3" t="s">
         <v>42</v>
@@ -12049,7 +12024,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B4" t="s">
         <v>43</v>
@@ -12078,7 +12053,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B5" t="s">
         <v>44</v>
@@ -12107,7 +12082,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B6" t="s">
         <v>45</v>
@@ -12136,7 +12111,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B7" t="s">
         <v>46</v>
@@ -12165,7 +12140,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B8" t="s">
         <v>47</v>
@@ -12194,7 +12169,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B9" t="s">
         <v>48</v>
@@ -12223,7 +12198,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B10" t="s">
         <v>49</v>
@@ -12252,7 +12227,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B11" t="s">
         <v>50</v>
@@ -12281,7 +12256,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B12" t="s">
         <v>51</v>
@@ -12310,7 +12285,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B13" t="s">
         <v>52</v>
@@ -12339,7 +12314,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s">
         <v>53</v>
@@ -12368,7 +12343,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B15" t="s">
         <v>54</v>
@@ -12397,7 +12372,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B16" t="s">
         <v>55</v>
@@ -12426,7 +12401,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B17" t="s">
         <v>56</v>
@@ -12455,7 +12430,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B18" t="s">
         <v>57</v>
@@ -12484,7 +12459,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
@@ -12513,7 +12488,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B20" t="s">
         <v>59</v>
@@ -12542,7 +12517,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B21" t="s">
         <v>60</v>
@@ -12571,7 +12546,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B22" t="s">
         <v>61</v>
@@ -12600,7 +12575,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B23" t="s">
         <v>62</v>
@@ -12629,7 +12604,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B24" t="s">
         <v>63</v>
@@ -12658,7 +12633,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B25" t="s">
         <v>64</v>
@@ -12687,7 +12662,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B26" t="s">
         <v>65</v>
@@ -12716,7 +12691,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B27" t="s">
         <v>66</v>
@@ -12745,7 +12720,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B28" t="s">
         <v>67</v>
@@ -12774,7 +12749,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B29" t="s">
         <v>68</v>
@@ -12803,7 +12778,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B30" t="s">
         <v>69</v>
@@ -12832,7 +12807,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B31" t="s">
         <v>70</v>
@@ -12861,7 +12836,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B32" t="s">
         <v>71</v>
@@ -12890,7 +12865,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B33" t="s">
         <v>72</v>
@@ -12919,7 +12894,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B34" t="s">
         <v>73</v>
@@ -12948,7 +12923,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B35" t="s">
         <v>74</v>
@@ -12977,7 +12952,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B36" t="s">
         <v>75</v>
@@ -13006,7 +12981,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B37" t="s">
         <v>76</v>
@@ -13035,7 +13010,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B38" t="s">
         <v>77</v>
@@ -13064,7 +13039,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B39" t="s">
         <v>78</v>
@@ -13093,7 +13068,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B40" t="s">
         <v>79</v>
@@ -13122,7 +13097,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B41" t="s">
         <v>80</v>
@@ -13151,7 +13126,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B42" t="s">
         <v>81</v>
@@ -13180,7 +13155,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B43" t="s">
         <v>82</v>
@@ -13209,7 +13184,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B44" t="s">
         <v>83</v>
@@ -13238,7 +13213,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B45" t="s">
         <v>84</v>
@@ -13267,7 +13242,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B46" t="s">
         <v>85</v>
@@ -13296,7 +13271,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B47" t="s">
         <v>86</v>
@@ -13325,7 +13300,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B48" t="s">
         <v>87</v>
@@ -13354,7 +13329,7 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B49" t="s">
         <v>88</v>
@@ -13383,7 +13358,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B50" t="s">
         <v>89</v>
@@ -13410,32 +13385,32 @@
         <v>0.51455550000000005</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>207</v>
-      </c>
-      <c r="B51" t="s">
+    <row r="51" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="B51" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="11">
         <v>7.3</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="11">
         <v>11.5</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="11">
         <v>2.3599999999999999E-2</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="11">
         <v>0.9659527</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="11">
         <v>0.90462129999999996</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="11">
         <v>0.94306909999999999</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="11">
         <v>0.84428579999999998</v>
       </c>
     </row>
@@ -13547,8 +13522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:XFD51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13561,28 +13536,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>156</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -14859,29 +14834,29 @@
         <v>0.33995667259395629</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="51" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="11">
         <v>14.1</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="11">
         <v>30.7</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="11">
         <v>1.0144349557000001</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="11">
         <v>0.99555555555555553</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="11">
         <v>0.9536363636363635</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="11">
         <v>0.99365079365079367</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="11">
         <v>0.92047619047619045</v>
       </c>
     </row>
@@ -14994,40 +14969,40 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" t="s">
         <v>150</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>151</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>152</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>153</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>154</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>155</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>156</v>
-      </c>
-      <c r="I1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B2" t="s">
         <v>41</v>
@@ -15056,7 +15031,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B3" t="s">
         <v>45</v>
@@ -15085,7 +15060,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B4" t="s">
         <v>48</v>
@@ -15114,7 +15089,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B5" t="s">
         <v>49</v>
@@ -15143,7 +15118,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B6" t="s">
         <v>51</v>
@@ -15172,7 +15147,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B7" t="s">
         <v>53</v>
@@ -15201,7 +15176,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B8" t="s">
         <v>55</v>
@@ -15230,7 +15205,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B9" t="s">
         <v>57</v>
@@ -15259,7 +15234,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
@@ -15288,7 +15263,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B11" t="s">
         <v>59</v>
@@ -15317,7 +15292,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B12" t="s">
         <v>62</v>
@@ -15346,7 +15321,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B13" t="s">
         <v>67</v>
@@ -15375,7 +15350,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s">
         <v>68</v>
@@ -15404,7 +15379,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B15" t="s">
         <v>69</v>
@@ -15433,7 +15408,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B16" t="s">
         <v>70</v>
@@ -15462,7 +15437,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B17" t="s">
         <v>72</v>
@@ -15491,7 +15466,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B18" t="s">
         <v>74</v>
@@ -15520,7 +15495,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B19" t="s">
         <v>75</v>
@@ -15549,7 +15524,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B20" t="s">
         <v>77</v>
@@ -15578,7 +15553,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B21" t="s">
         <v>78</v>
@@ -15607,7 +15582,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B22" t="s">
         <v>79</v>
@@ -15636,7 +15611,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B23" t="s">
         <v>81</v>
@@ -15665,7 +15640,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B24" t="s">
         <v>83</v>
@@ -15694,7 +15669,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B25" t="s">
         <v>84</v>
@@ -15723,7 +15698,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B26" t="s">
         <v>86</v>
@@ -15752,7 +15727,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B27" t="s">
         <v>88</v>
@@ -15781,7 +15756,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B28" t="s">
         <v>89</v>
@@ -15808,32 +15783,32 @@
         <v>0.47766779999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>185</v>
-      </c>
-      <c r="B29" t="s">
+    <row r="29" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="B29" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="11">
         <v>11.9</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="11">
         <v>30.1</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="11">
         <v>1.7399999999999999E-2</v>
       </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
+      <c r="F29" s="11">
+        <v>1</v>
+      </c>
+      <c r="G29" s="11">
         <v>0.94363640000000004</v>
       </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="I29">
+      <c r="H29" s="11">
+        <v>1</v>
+      </c>
+      <c r="I29" s="11">
         <v>0.90380950000000004</v>
       </c>
     </row>
@@ -15943,56 +15918,65 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M52"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="S38" sqref="S38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="7" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="11" max="1025" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
       </c>
       <c r="D1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J1" t="s">
         <v>217</v>
       </c>
-      <c r="E1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F1" t="s">
-        <v>209</v>
-      </c>
-      <c r="G1" t="s">
-        <v>210</v>
-      </c>
-      <c r="H1" t="s">
-        <v>211</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>212</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>213</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>214</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>215</v>
       </c>
-      <c r="M1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -16000,40 +15984,43 @@
         <v>43</v>
       </c>
       <c r="C2">
-        <v>11.7</v>
+        <v>3.5</v>
       </c>
       <c r="D2">
-        <v>27.8</v>
+        <v>2.8</v>
       </c>
       <c r="E2">
-        <v>0.46129999999999999</v>
+        <v>0.45219999999999999</v>
       </c>
       <c r="F2">
-        <v>3.2022624999999998</v>
+        <v>2.4313465999999999</v>
       </c>
       <c r="G2">
-        <v>3.7511578999999999</v>
+        <v>2.8421865999999998</v>
       </c>
       <c r="H2">
-        <v>0.40209270000000003</v>
+        <v>0.3053169</v>
       </c>
       <c r="I2">
-        <v>0.410746</v>
+        <v>0.30975629999999998</v>
       </c>
       <c r="J2">
-        <v>2.3148721999999999</v>
+        <v>0.3098997</v>
       </c>
       <c r="K2">
-        <v>2.8047298000000001</v>
+        <v>1.7927814</v>
       </c>
       <c r="L2">
-        <v>0.92401319999999998</v>
+        <v>2.0890361</v>
       </c>
       <c r="M2">
-        <v>0.89079129999999995</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.94994789999999996</v>
+      </c>
+      <c r="N2">
+        <v>0.93475920000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -16041,40 +16028,43 @@
         <v>104</v>
       </c>
       <c r="C3">
-        <v>8.8000000000000007</v>
+        <v>5.3</v>
       </c>
       <c r="D3">
-        <v>15.8</v>
+        <v>8.5</v>
       </c>
       <c r="E3">
-        <v>0.19689999999999999</v>
+        <v>0.18729999999999999</v>
       </c>
       <c r="F3">
-        <v>2617.6186518999998</v>
+        <v>1553.6726338999999</v>
       </c>
       <c r="G3">
-        <v>3421.6069373999999</v>
+        <v>2975.3751513000002</v>
       </c>
       <c r="H3">
-        <v>0.43036410000000003</v>
+        <v>0.255301</v>
       </c>
       <c r="I3">
-        <v>0.473049</v>
+        <v>0.4099353</v>
       </c>
       <c r="J3">
-        <v>1897.5523495</v>
+        <v>0.41179199999999999</v>
       </c>
       <c r="K3">
-        <v>2348.5593604999999</v>
+        <v>1094.7426857999999</v>
       </c>
       <c r="L3">
-        <v>0.91430140000000004</v>
+        <v>1782.6658970000001</v>
       </c>
       <c r="M3">
-        <v>0.82414240000000005</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.9644315</v>
+      </c>
+      <c r="N3">
+        <v>0.80995159999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -16082,40 +16072,43 @@
         <v>105</v>
       </c>
       <c r="C4">
-        <v>4.9000000000000004</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D4">
-        <v>7.3</v>
+        <v>0.1</v>
       </c>
       <c r="E4">
-        <v>5.1200000000000002E-2</v>
+        <v>2.52E-2</v>
       </c>
       <c r="F4">
-        <v>5.8209353000000004</v>
+        <v>3.2569463000000001</v>
       </c>
       <c r="G4">
-        <v>7.3074876</v>
+        <v>4.8791608999999996</v>
       </c>
       <c r="H4">
-        <v>0.58248809999999995</v>
+        <v>0.32642260000000001</v>
       </c>
       <c r="I4">
-        <v>0.65152549999999998</v>
+        <v>0.42339949999999998</v>
       </c>
       <c r="J4">
-        <v>3.6685199000000002</v>
+        <v>0.42742730000000001</v>
       </c>
       <c r="K4">
-        <v>5.0878011000000001</v>
+        <v>2.2559317999999999</v>
       </c>
       <c r="L4">
-        <v>0.82819860000000001</v>
+        <v>3.409999</v>
       </c>
       <c r="M4">
-        <v>0.67235009999999995</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.93975719999999996</v>
+      </c>
+      <c r="N4">
+        <v>0.88271829999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -16123,40 +16116,43 @@
         <v>106</v>
       </c>
       <c r="C5">
-        <v>6.7</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>12.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E5">
-        <v>0.28050000000000003</v>
+        <v>6.6400000000000001E-2</v>
       </c>
       <c r="F5">
-        <v>734.67763000000002</v>
+        <v>612.40186889999995</v>
       </c>
       <c r="G5">
-        <v>852.50556280000001</v>
+        <v>706.31544129999997</v>
       </c>
       <c r="H5">
-        <v>0.59107759999999998</v>
+        <v>0.49290390000000001</v>
       </c>
       <c r="I5">
-        <v>0.70013530000000002</v>
+        <v>0.5781906</v>
       </c>
       <c r="J5">
-        <v>528.90637479999998</v>
+        <v>0.57963739999999997</v>
       </c>
       <c r="K5">
-        <v>607.11361910000005</v>
+        <v>418.41240740000001</v>
       </c>
       <c r="L5">
-        <v>0.80792489999999995</v>
+        <v>491.42275310000002</v>
       </c>
       <c r="M5">
-        <v>0.73795230000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.86874200000000001</v>
+      </c>
+      <c r="N5">
+        <v>0.8179592</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -16164,40 +16160,43 @@
         <v>107</v>
       </c>
       <c r="C6">
-        <v>20.3</v>
+        <v>3.5</v>
       </c>
       <c r="D6">
-        <v>55.3</v>
+        <v>2.7</v>
       </c>
       <c r="E6">
-        <v>0.36980000000000002</v>
+        <v>0.18340000000000001</v>
       </c>
       <c r="F6">
-        <v>3.0142655999999999</v>
+        <v>0.97310920000000001</v>
       </c>
       <c r="G6">
-        <v>2.8963499000000001</v>
+        <v>1.061855</v>
       </c>
       <c r="H6">
-        <v>0.3517904</v>
+        <v>0.1135922</v>
       </c>
       <c r="I6">
-        <v>0.28662919999999997</v>
+        <v>0.10854900000000001</v>
       </c>
       <c r="J6">
-        <v>2.0445587999999999</v>
+        <v>0.1094044</v>
       </c>
       <c r="K6">
-        <v>2.0175887000000001</v>
+        <v>0.33555950000000001</v>
       </c>
       <c r="L6">
-        <v>0.95270279999999996</v>
+        <v>0.4429013</v>
       </c>
       <c r="M6">
-        <v>0.95195790000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.99264010000000003</v>
+      </c>
+      <c r="N6">
+        <v>0.98544699999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -16205,40 +16204,43 @@
         <v>108</v>
       </c>
       <c r="C7">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="E7">
-        <v>1.34E-2</v>
+        <v>3.49E-2</v>
       </c>
       <c r="F7">
-        <v>11.089397399999999</v>
+        <v>5.1476752000000001</v>
       </c>
       <c r="G7">
-        <v>11.1603274</v>
+        <v>5.6766114999999999</v>
       </c>
       <c r="H7">
-        <v>0.41105760000000002</v>
+        <v>0.19050059999999999</v>
       </c>
       <c r="I7">
-        <v>0.4155277</v>
+        <v>0.17408380000000001</v>
       </c>
       <c r="J7">
-        <v>8.953417</v>
+        <v>0.1856334</v>
       </c>
       <c r="K7">
-        <v>9.4853102000000007</v>
+        <v>3.3785476000000001</v>
       </c>
       <c r="L7">
-        <v>0.93745500000000004</v>
+        <v>3.8521694000000002</v>
       </c>
       <c r="M7">
-        <v>0.83892639999999996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.98244560000000003</v>
+      </c>
+      <c r="N7">
+        <v>0.96801910000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -16246,40 +16248,43 @@
         <v>109</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0.22889999999999999</v>
+        <v>0.2409</v>
       </c>
       <c r="F8">
-        <v>9.9162307999999992</v>
+        <v>9.3360851</v>
       </c>
       <c r="G8">
-        <v>10.1687809</v>
+        <v>9.7824937999999992</v>
       </c>
       <c r="H8">
-        <v>0.94381800000000005</v>
+        <v>0.88861480000000004</v>
       </c>
       <c r="I8">
-        <v>0.89715670000000003</v>
+        <v>0.8632879</v>
       </c>
       <c r="J8">
-        <v>7.7739018</v>
+        <v>0.86673520000000004</v>
       </c>
       <c r="K8">
-        <v>7.9957484000000001</v>
+        <v>7.3900262999999997</v>
       </c>
       <c r="L8">
-        <v>0.28309580000000001</v>
+        <v>7.7669072000000003</v>
       </c>
       <c r="M8">
-        <v>0.19473879999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.4293978</v>
+      </c>
+      <c r="N8">
+        <v>0.32994519999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -16287,40 +16292,43 @@
         <v>110</v>
       </c>
       <c r="C9">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="D9">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="E9">
-        <v>0.15759999999999999</v>
+        <v>2.9100000000000001E-2</v>
       </c>
       <c r="F9">
-        <v>49.262911500000001</v>
+        <v>47.050485799999997</v>
       </c>
       <c r="G9">
-        <v>51.5810429</v>
+        <v>52.952150799999998</v>
       </c>
       <c r="H9">
-        <v>0.93574109999999999</v>
+        <v>0.89334639999999998</v>
       </c>
       <c r="I9">
-        <v>0.83103490000000002</v>
+        <v>0.85777099999999995</v>
       </c>
       <c r="J9">
-        <v>38.092996300000003</v>
+        <v>0.85847700000000005</v>
       </c>
       <c r="K9">
-        <v>40.182695500000001</v>
+        <v>36.367744999999999</v>
       </c>
       <c r="L9">
-        <v>0.228936</v>
+        <v>40.6128845</v>
       </c>
       <c r="M9">
-        <v>8.5824800000000007E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.40466730000000001</v>
+      </c>
+      <c r="N9">
+        <v>0.19100990000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -16328,40 +16336,43 @@
         <v>111</v>
       </c>
       <c r="C10">
-        <v>7.4</v>
+        <v>3.4</v>
       </c>
       <c r="D10">
-        <v>13.7</v>
+        <v>2.5</v>
       </c>
       <c r="E10">
-        <v>0.20949999999999999</v>
+        <v>0.1032</v>
       </c>
       <c r="F10">
-        <v>0.57894920000000005</v>
+        <v>0.28590359999999998</v>
       </c>
       <c r="G10">
-        <v>0.67174140000000004</v>
+        <v>0.48671710000000001</v>
       </c>
       <c r="H10">
-        <v>0.53875280000000003</v>
+        <v>0.26602520000000002</v>
       </c>
       <c r="I10">
-        <v>0.61664459999999999</v>
+        <v>0.43489050000000001</v>
       </c>
       <c r="J10">
-        <v>0.41301789999999999</v>
+        <v>0.43979119999999999</v>
       </c>
       <c r="K10">
-        <v>0.48765310000000001</v>
+        <v>0.20858840000000001</v>
       </c>
       <c r="L10">
-        <v>0.87005359999999998</v>
+        <v>0.30946210000000002</v>
       </c>
       <c r="M10">
-        <v>0.82057860000000005</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.96377080000000004</v>
+      </c>
+      <c r="N10">
+        <v>0.92974760000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -16369,40 +16380,43 @@
         <v>112</v>
       </c>
       <c r="C11">
-        <v>23.4</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="D11">
-        <v>83.6</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="E11">
-        <v>1.0798000000000001</v>
+        <v>0.75570000000000004</v>
       </c>
       <c r="F11">
-        <v>8.0063031999999996</v>
+        <v>5.8317006999999998</v>
       </c>
       <c r="G11">
-        <v>8.7381723999999998</v>
+        <v>6.4591352999999998</v>
       </c>
       <c r="H11">
-        <v>0.4785296</v>
+        <v>0.34853620000000002</v>
       </c>
       <c r="I11">
-        <v>0.512764</v>
+        <v>0.37879859999999999</v>
       </c>
       <c r="J11">
-        <v>6.1948717000000002</v>
+        <v>0.37900640000000002</v>
       </c>
       <c r="K11">
-        <v>6.784656</v>
+        <v>4.3855129000000002</v>
       </c>
       <c r="L11">
-        <v>0.88740370000000002</v>
+        <v>4.8418013000000002</v>
       </c>
       <c r="M11">
-        <v>0.86051999999999995</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.93684489999999998</v>
+      </c>
+      <c r="N11">
+        <v>0.92306129999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -16410,40 +16424,43 @@
         <v>113</v>
       </c>
       <c r="C12">
-        <v>6.2</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>7.7600000000000002E-2</v>
+        <v>7.8200000000000006E-2</v>
       </c>
       <c r="F12">
-        <v>4.6143071999999998</v>
+        <v>2.3526880000000001</v>
       </c>
       <c r="G12">
-        <v>5.3329820999999997</v>
+        <v>2.6899584999999999</v>
       </c>
       <c r="H12">
-        <v>0.50118010000000002</v>
+        <v>0.25566549999999999</v>
       </c>
       <c r="I12">
-        <v>0.3723629</v>
+        <v>0.19051570000000001</v>
       </c>
       <c r="J12">
-        <v>3.4751772000000001</v>
+        <v>0.19120970000000001</v>
       </c>
       <c r="K12">
-        <v>4.1648940000000003</v>
+        <v>1.8669541999999999</v>
       </c>
       <c r="L12">
-        <v>0.83784630000000004</v>
+        <v>2.1582509000000001</v>
       </c>
       <c r="M12">
-        <v>0.73222189999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.95320050000000001</v>
+      </c>
+      <c r="N12">
+        <v>0.94674119999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -16451,40 +16468,43 @@
         <v>114</v>
       </c>
       <c r="C13">
-        <v>9.1999999999999993</v>
+        <v>2.5</v>
       </c>
       <c r="D13">
-        <v>19.2</v>
+        <v>1.6</v>
       </c>
       <c r="E13">
-        <v>0.15010000000000001</v>
+        <v>5.96E-2</v>
       </c>
       <c r="F13">
-        <v>67.560165900000001</v>
+        <v>23.487129299999999</v>
       </c>
       <c r="G13">
-        <v>87.261324799999997</v>
+        <v>30.488769000000001</v>
       </c>
       <c r="H13">
-        <v>0.44496580000000002</v>
+        <v>0.1512857</v>
       </c>
       <c r="I13">
-        <v>0.68366199999999999</v>
+        <v>0.23071120000000001</v>
       </c>
       <c r="J13">
-        <v>39.4505214</v>
+        <v>0.24171509999999999</v>
       </c>
       <c r="K13">
-        <v>48.264831700000002</v>
+        <v>11.8576145</v>
       </c>
       <c r="L13">
-        <v>0.91043169999999995</v>
+        <v>14.2599749</v>
       </c>
       <c r="M13">
-        <v>0.88261579999999995</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.98780389999999996</v>
+      </c>
+      <c r="N13">
+        <v>0.98135589999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -16492,40 +16512,43 @@
         <v>115</v>
       </c>
       <c r="C14">
-        <v>8.6</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>16</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E14">
-        <v>0.37280000000000002</v>
+        <v>0.2422</v>
       </c>
       <c r="F14">
-        <v>0.42643439999999999</v>
+        <v>0.39165759999999999</v>
       </c>
       <c r="G14">
-        <v>0.48947400000000002</v>
+        <v>0.41044249999999999</v>
       </c>
       <c r="H14">
-        <v>0.44179869999999999</v>
+        <v>0.4057518</v>
       </c>
       <c r="I14">
-        <v>0.47160960000000002</v>
+        <v>0.39572639999999998</v>
       </c>
       <c r="J14">
-        <v>0.32701629999999998</v>
+        <v>0.39627610000000002</v>
       </c>
       <c r="K14">
-        <v>0.3809361</v>
+        <v>0.29942639999999998</v>
       </c>
       <c r="L14">
-        <v>0.90593270000000004</v>
+        <v>0.31883660000000003</v>
       </c>
       <c r="M14">
-        <v>0.87190089999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.91355600000000003</v>
+      </c>
+      <c r="N14">
+        <v>0.90828100000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -16533,40 +16556,43 @@
         <v>55</v>
       </c>
       <c r="C15">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="D15">
         <v>0.9</v>
       </c>
       <c r="E15">
-        <v>5.5100000000000003E-2</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="F15">
-        <v>0.60679830000000001</v>
+        <v>0.51682329999999999</v>
       </c>
       <c r="G15">
-        <v>0.71571180000000001</v>
+        <v>0.61278060000000001</v>
       </c>
       <c r="H15">
-        <v>0.5606274</v>
+        <v>0.47758669999999998</v>
       </c>
       <c r="I15">
-        <v>0.29511100000000001</v>
+        <v>0.2489442</v>
       </c>
       <c r="J15">
-        <v>0.4619839</v>
+        <v>0.24993109999999999</v>
       </c>
       <c r="K15">
-        <v>0.59216939999999996</v>
+        <v>0.40474579999999999</v>
       </c>
       <c r="L15">
-        <v>0.50240910000000005</v>
+        <v>0.49753069999999999</v>
       </c>
       <c r="M15">
-        <v>0.1048834</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.67535820000000002</v>
+      </c>
+      <c r="N15">
+        <v>0.62636749999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -16574,40 +16600,43 @@
         <v>116</v>
       </c>
       <c r="C16">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>0.15740000000000001</v>
+        <v>0.1124</v>
       </c>
       <c r="F16">
-        <v>11.040760799999999</v>
+        <v>10.8431674</v>
       </c>
       <c r="G16">
-        <v>11.3764159</v>
+        <v>11.095356000000001</v>
       </c>
       <c r="H16">
-        <v>0.68996190000000002</v>
+        <v>0.67758589999999996</v>
       </c>
       <c r="I16">
-        <v>0.65580729999999998</v>
+        <v>0.64030989999999999</v>
       </c>
       <c r="J16">
-        <v>8.6306755000000006</v>
+        <v>0.64451919999999996</v>
       </c>
       <c r="K16">
-        <v>9.2443398000000006</v>
+        <v>8.4304767999999992</v>
       </c>
       <c r="L16">
-        <v>0.72239469999999995</v>
+        <v>8.8165533000000007</v>
       </c>
       <c r="M16">
-        <v>0.72025289999999997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.73103839999999998</v>
+      </c>
+      <c r="N16">
+        <v>0.73628400000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -16615,40 +16644,43 @@
         <v>117</v>
       </c>
       <c r="C17">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>23.5</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>0.45660000000000001</v>
+        <v>2.8299999999999999E-2</v>
       </c>
       <c r="F17">
-        <v>649.45767490000003</v>
+        <v>633.55668890000004</v>
       </c>
       <c r="G17">
-        <v>701.0669504</v>
+        <v>640.77708559999996</v>
       </c>
       <c r="H17">
-        <v>0.56294489999999997</v>
+        <v>0.54910890000000001</v>
       </c>
       <c r="I17">
-        <v>0.59401839999999995</v>
+        <v>0.5495314</v>
       </c>
       <c r="J17">
-        <v>425.56854959999998</v>
+        <v>0.55060220000000004</v>
       </c>
       <c r="K17">
-        <v>478.80490429999998</v>
+        <v>416.48884650000002</v>
       </c>
       <c r="L17">
-        <v>0.83476709999999998</v>
+        <v>418.76668430000001</v>
       </c>
       <c r="M17">
-        <v>0.79896590000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.83543290000000003</v>
+      </c>
+      <c r="N17">
+        <v>0.83311860000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -16656,40 +16688,43 @@
         <v>118</v>
       </c>
       <c r="C18">
-        <v>57.3</v>
+        <v>12.4</v>
       </c>
       <c r="D18">
-        <v>253.3</v>
+        <v>26.1</v>
       </c>
       <c r="E18">
-        <v>0.9556</v>
+        <v>0.3367</v>
       </c>
       <c r="F18">
-        <v>463.30220250000002</v>
+        <v>88.950754599999996</v>
       </c>
       <c r="G18">
-        <v>467.7738678</v>
+        <v>96.501151699999994</v>
       </c>
       <c r="H18">
-        <v>0.25018940000000001</v>
+        <v>4.8026300000000001E-2</v>
       </c>
       <c r="I18">
-        <v>0.25261840000000002</v>
+        <v>5.2364500000000001E-2</v>
       </c>
       <c r="J18">
-        <v>299.2190908</v>
+        <v>5.2432100000000002E-2</v>
       </c>
       <c r="K18">
-        <v>307.83544560000001</v>
+        <v>61.177979000000001</v>
       </c>
       <c r="L18">
-        <v>0.97534419999999999</v>
+        <v>64.495589199999998</v>
       </c>
       <c r="M18">
-        <v>0.97464519999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.99883310000000003</v>
+      </c>
+      <c r="N18">
+        <v>0.99856009999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -16697,40 +16732,43 @@
         <v>119</v>
       </c>
       <c r="C19">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="D19">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="E19">
-        <v>4.58E-2</v>
+        <v>1.43E-2</v>
       </c>
       <c r="F19">
-        <v>11.5391812</v>
+        <v>9.3194488</v>
       </c>
       <c r="G19">
-        <v>15.3107123</v>
+        <v>11.498443399999999</v>
       </c>
       <c r="H19">
-        <v>0.43457859999999998</v>
+        <v>0.35130020000000001</v>
       </c>
       <c r="I19">
-        <v>0.52861159999999996</v>
+        <v>0.39556439999999998</v>
       </c>
       <c r="J19">
-        <v>9.4388907999999994</v>
+        <v>0.39641500000000002</v>
       </c>
       <c r="K19">
-        <v>12.9207757</v>
+        <v>7.3289216000000001</v>
       </c>
       <c r="L19">
-        <v>0.90967949999999997</v>
+        <v>9.3121796999999997</v>
       </c>
       <c r="M19">
-        <v>0.89099899999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.91896710000000004</v>
+      </c>
+      <c r="N19">
+        <v>0.8995031</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -16738,40 +16776,43 @@
         <v>120</v>
       </c>
       <c r="C20">
-        <v>10.199999999999999</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D20">
-        <v>23.3</v>
+        <v>4.3</v>
       </c>
       <c r="E20">
-        <v>0.3654</v>
+        <v>0.2132</v>
       </c>
       <c r="F20">
-        <v>153.25352559999999</v>
+        <v>46.239063899999998</v>
       </c>
       <c r="G20">
-        <v>170.0277255</v>
+        <v>53.646157100000003</v>
       </c>
       <c r="H20">
-        <v>0.42129850000000002</v>
+        <v>0.12691359999999999</v>
       </c>
       <c r="I20">
-        <v>0.42313689999999998</v>
+        <v>0.1362555</v>
       </c>
       <c r="J20">
-        <v>112.3841116</v>
+        <v>0.1369483</v>
       </c>
       <c r="K20">
-        <v>122.3361548</v>
+        <v>30.451100700000001</v>
       </c>
       <c r="L20">
-        <v>0.92731129999999995</v>
+        <v>37.207875899999998</v>
       </c>
       <c r="M20">
-        <v>0.92011639999999995</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.99163539999999994</v>
+      </c>
+      <c r="N20">
+        <v>0.99120969999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -16779,40 +16820,43 @@
         <v>121</v>
       </c>
       <c r="C21">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="D21">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="E21">
-        <v>0.13</v>
+        <v>3.1699999999999999E-2</v>
       </c>
       <c r="F21">
-        <v>60.7814768</v>
+        <v>61.325701199999997</v>
       </c>
       <c r="G21">
-        <v>52.631677400000001</v>
+        <v>49.549868199999999</v>
       </c>
       <c r="H21">
-        <v>0.96410850000000003</v>
+        <v>0.9695937</v>
       </c>
       <c r="I21">
-        <v>1.3630384</v>
+        <v>1.1308308</v>
       </c>
       <c r="J21">
-        <v>18.521360999999999</v>
+        <v>1.2541686999999999</v>
       </c>
       <c r="K21">
-        <v>20.528556999999999</v>
+        <v>19.0035059</v>
       </c>
       <c r="L21">
-        <v>8.0178299999999994E-2</v>
+        <v>20.7224337</v>
       </c>
       <c r="M21">
-        <v>-6.3604000000000004E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.20808750000000001</v>
+      </c>
+      <c r="N21">
+        <v>3.3987700000000003E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -16820,40 +16864,43 @@
         <v>122</v>
       </c>
       <c r="C22">
-        <v>25.6</v>
+        <v>6.4</v>
       </c>
       <c r="D22">
-        <v>98.3</v>
+        <v>11.7</v>
       </c>
       <c r="E22">
-        <v>1.0142</v>
+        <v>0.21560000000000001</v>
       </c>
       <c r="F22">
-        <v>2.5323636</v>
+        <v>2.2595624999999999</v>
       </c>
       <c r="G22">
-        <v>3.0185702000000001</v>
+        <v>2.4287782</v>
       </c>
       <c r="H22">
-        <v>0.48723260000000002</v>
+        <v>0.43470799999999998</v>
       </c>
       <c r="I22">
-        <v>0.56798859999999995</v>
+        <v>0.45728449999999998</v>
       </c>
       <c r="J22">
-        <v>1.9896566</v>
+        <v>0.45754590000000001</v>
       </c>
       <c r="K22">
-        <v>2.3742698999999998</v>
+        <v>1.7605181999999999</v>
       </c>
       <c r="L22">
-        <v>0.88075230000000004</v>
+        <v>1.8923513999999999</v>
       </c>
       <c r="M22">
-        <v>0.81685839999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.89960430000000002</v>
+      </c>
+      <c r="N22">
+        <v>0.88428399999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -16867,34 +16914,37 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.14460000000000001</v>
+        <v>6.8599999999999994E-2</v>
       </c>
       <c r="F23">
-        <v>15.810422300000001</v>
+        <v>15.7795367</v>
       </c>
       <c r="G23">
-        <v>15.538709600000001</v>
+        <v>15.736126199999999</v>
       </c>
       <c r="H23">
-        <v>0.99787579999999998</v>
+        <v>0.99584850000000003</v>
       </c>
       <c r="I23">
-        <v>0.9319636</v>
+        <v>0.94101330000000005</v>
       </c>
       <c r="J23">
-        <v>11.4604359</v>
+        <v>0.94700740000000005</v>
       </c>
       <c r="K23">
-        <v>11.490603500000001</v>
+        <v>11.467637699999999</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>11.697323900000001</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.84383E-2</v>
+      </c>
+      <c r="N23">
+        <v>-9.3677399999999994E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -16902,40 +16952,43 @@
         <v>124</v>
       </c>
       <c r="C24">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="D24">
-        <v>2.2000000000000002</v>
+        <v>1.9</v>
       </c>
       <c r="E24">
-        <v>1.0800000000000001E-2</v>
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="F24">
-        <v>19.802129499999999</v>
+        <v>11.834785500000001</v>
       </c>
       <c r="G24">
-        <v>19.282041100000001</v>
+        <v>11.7902059</v>
       </c>
       <c r="H24">
-        <v>0.2911456</v>
+        <v>0.17414540000000001</v>
       </c>
       <c r="I24">
-        <v>0.123418</v>
+        <v>7.93267E-2</v>
       </c>
       <c r="J24">
-        <v>16.228390099999999</v>
+        <v>8.0367300000000003E-2</v>
       </c>
       <c r="K24">
-        <v>17.575807999999999</v>
+        <v>8.6220602</v>
       </c>
       <c r="L24">
-        <v>0.94196219999999997</v>
+        <v>9.9537162000000006</v>
       </c>
       <c r="M24">
-        <v>0.87930779999999997</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.96042890000000003</v>
+      </c>
+      <c r="N24">
+        <v>0.9579434</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -16943,40 +16996,43 @@
         <v>125</v>
       </c>
       <c r="C25">
-        <v>12.8</v>
+        <v>7.7</v>
       </c>
       <c r="D25">
-        <v>31.4</v>
+        <v>12.7</v>
       </c>
       <c r="E25">
-        <v>0.54020000000000001</v>
+        <v>0.35139999999999999</v>
       </c>
       <c r="F25">
-        <v>4.0082199000000003</v>
+        <v>2.7953690999999998</v>
       </c>
       <c r="G25">
-        <v>4.7913325000000002</v>
+        <v>3.7768529000000002</v>
       </c>
       <c r="H25">
-        <v>0.43582589999999999</v>
+        <v>0.3039869</v>
       </c>
       <c r="I25">
-        <v>0.51040339999999995</v>
+        <v>0.40035860000000001</v>
       </c>
       <c r="J25">
-        <v>2.8891260000000001</v>
+        <v>0.40151049999999999</v>
       </c>
       <c r="K25">
-        <v>3.4029631</v>
+        <v>2.0743678000000001</v>
       </c>
       <c r="L25">
-        <v>0.9117596</v>
+        <v>2.6336941999999999</v>
       </c>
       <c r="M25">
-        <v>0.85921130000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.95228250000000003</v>
+      </c>
+      <c r="N25">
+        <v>0.91075159999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -16984,40 +17040,43 @@
         <v>126</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>0.107</v>
+        <v>9.0300000000000005E-2</v>
       </c>
       <c r="F26">
-        <v>0.61399630000000005</v>
+        <v>0.54908219999999996</v>
       </c>
       <c r="G26">
-        <v>0.61791890000000005</v>
+        <v>0.59375650000000002</v>
       </c>
       <c r="H26">
-        <v>0.87764500000000001</v>
+        <v>0.78498950000000001</v>
       </c>
       <c r="I26">
-        <v>0.7337941</v>
+        <v>0.72055599999999997</v>
       </c>
       <c r="J26">
-        <v>0.45854479999999997</v>
+        <v>0.72841319999999998</v>
       </c>
       <c r="K26">
-        <v>0.47702260000000002</v>
+        <v>0.42149530000000002</v>
       </c>
       <c r="L26">
-        <v>0.44321670000000002</v>
+        <v>0.46624569999999999</v>
       </c>
       <c r="M26">
-        <v>0.36877670000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.59478660000000005</v>
+      </c>
+      <c r="N26">
+        <v>0.45872750000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -17025,40 +17084,43 @@
         <v>127</v>
       </c>
       <c r="C27">
-        <v>29.5</v>
+        <v>13.3</v>
       </c>
       <c r="D27">
-        <v>119.6</v>
+        <v>30.9</v>
       </c>
       <c r="E27">
-        <v>0.89</v>
+        <v>0.17960000000000001</v>
       </c>
       <c r="F27">
-        <v>16.739436699999999</v>
+        <v>8.6077957999999999</v>
       </c>
       <c r="G27">
-        <v>17.819040600000001</v>
+        <v>9.2571501999999999</v>
       </c>
       <c r="H27">
-        <v>0.3568713</v>
+        <v>0.18349969999999999</v>
       </c>
       <c r="I27">
-        <v>0.37212139999999999</v>
+        <v>0.19401180000000001</v>
       </c>
       <c r="J27">
-        <v>10.621328</v>
+        <v>0.19424549999999999</v>
       </c>
       <c r="K27">
-        <v>11.4519284</v>
+        <v>4.9743827999999999</v>
       </c>
       <c r="L27">
-        <v>0.94512030000000002</v>
+        <v>5.4634684</v>
       </c>
       <c r="M27">
-        <v>0.93214070000000004</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.98344609999999999</v>
+      </c>
+      <c r="N27">
+        <v>0.98117810000000005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -17066,40 +17128,43 @@
         <v>128</v>
       </c>
       <c r="C28">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="D28">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>7.9600000000000004E-2</v>
+        <v>1.8E-3</v>
       </c>
       <c r="F28">
-        <v>2107.7301492000001</v>
+        <v>797.15668449999998</v>
       </c>
       <c r="G28">
-        <v>1645.9566679</v>
+        <v>667.87828090000005</v>
       </c>
       <c r="H28">
-        <v>0.1118856</v>
+        <v>4.2383400000000002E-2</v>
       </c>
       <c r="I28">
-        <v>3.2978599999999997E-2</v>
+        <v>1.30715E-2</v>
       </c>
       <c r="J28">
-        <v>1693.7690015999999</v>
+        <v>1.3079E-2</v>
       </c>
       <c r="K28">
-        <v>1502.9726966999999</v>
+        <v>653.99938840000004</v>
       </c>
       <c r="L28">
-        <v>0.82498910000000003</v>
+        <v>606.39116760000002</v>
       </c>
       <c r="M28">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.97144819999999998</v>
+      </c>
+      <c r="N28">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -17107,40 +17172,43 @@
         <v>129</v>
       </c>
       <c r="C29">
-        <v>2.2000000000000002</v>
+        <v>1</v>
       </c>
       <c r="D29">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>0.1036</v>
+        <v>0.12039999999999999</v>
       </c>
       <c r="F29">
-        <v>448.88958359999998</v>
+        <v>423.09528280000001</v>
       </c>
       <c r="G29">
-        <v>451.26560490000003</v>
+        <v>434.23545619999999</v>
       </c>
       <c r="H29">
-        <v>0.59782080000000004</v>
+        <v>0.56342650000000005</v>
       </c>
       <c r="I29">
-        <v>0.49442390000000003</v>
+        <v>0.47510659999999999</v>
       </c>
       <c r="J29">
-        <v>360.74878810000001</v>
+        <v>0.47662260000000001</v>
       </c>
       <c r="K29">
-        <v>371.70426780000003</v>
+        <v>348.711431</v>
       </c>
       <c r="L29">
-        <v>0.78810279999999999</v>
+        <v>363.47886510000001</v>
       </c>
       <c r="M29">
-        <v>0.7916436</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.81315420000000005</v>
+      </c>
+      <c r="N29">
+        <v>0.80914439999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -17148,40 +17216,43 @@
         <v>130</v>
       </c>
       <c r="C30">
-        <v>7.8</v>
+        <v>3</v>
       </c>
       <c r="D30">
-        <v>15.4</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E30">
-        <v>0.17849999999999999</v>
+        <v>0.12870000000000001</v>
       </c>
       <c r="F30">
-        <v>75.772744500000002</v>
+        <v>39.461516000000003</v>
       </c>
       <c r="G30">
-        <v>106.9865739</v>
+        <v>60.463032800000001</v>
       </c>
       <c r="H30">
-        <v>0.47836909999999999</v>
+        <v>0.2496099</v>
       </c>
       <c r="I30">
-        <v>0.74156290000000002</v>
+        <v>0.44104569999999998</v>
       </c>
       <c r="J30">
-        <v>47.001916000000001</v>
+        <v>0.46202749999999998</v>
       </c>
       <c r="K30">
-        <v>59.489321699999998</v>
+        <v>23.413442799999999</v>
       </c>
       <c r="L30">
-        <v>0.89277850000000003</v>
+        <v>32.000287800000002</v>
       </c>
       <c r="M30">
-        <v>0.8504003</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.96683220000000003</v>
+      </c>
+      <c r="N30">
+        <v>0.91051040000000005</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -17195,34 +17266,37 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>6.3799999999999996E-2</v>
+        <v>5.3199999999999997E-2</v>
       </c>
       <c r="F31">
-        <v>0.32590849999999999</v>
+        <v>0.27859420000000001</v>
       </c>
       <c r="G31">
-        <v>0.31472220000000001</v>
+        <v>0.27300079999999999</v>
       </c>
       <c r="H31">
-        <v>0.54289109999999996</v>
+        <v>0.4636132</v>
       </c>
       <c r="I31">
-        <v>0.2332834</v>
+        <v>0.20114599999999999</v>
       </c>
       <c r="J31">
-        <v>0.25699939999999999</v>
+        <v>0.20101720000000001</v>
       </c>
       <c r="K31">
-        <v>0.25056060000000002</v>
+        <v>0.21055940000000001</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>0.2160781</v>
       </c>
       <c r="M31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.51695880000000005</v>
+      </c>
+      <c r="N31">
+        <v>0.32243339999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -17230,40 +17304,43 @@
         <v>132</v>
       </c>
       <c r="C32">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="D32">
-        <v>4.5999999999999996</v>
+        <v>3.2</v>
       </c>
       <c r="E32">
-        <v>0.128</v>
+        <v>0.25819999999999999</v>
       </c>
       <c r="F32">
-        <v>627.21437739999999</v>
+        <v>0.10437970000000001</v>
       </c>
       <c r="G32">
-        <v>516.20748530000003</v>
+        <v>0.1151563</v>
       </c>
       <c r="H32">
-        <v>0.83495940000000002</v>
+        <v>3.3445700000000002E-2</v>
       </c>
       <c r="I32">
-        <v>1.1868072999999999</v>
+        <v>3.5691000000000001E-2</v>
       </c>
       <c r="J32">
-        <v>130.12330470000001</v>
+        <v>3.5740000000000001E-2</v>
       </c>
       <c r="K32">
-        <v>139.08129210000001</v>
+        <v>7.5787599999999997E-2</v>
       </c>
       <c r="L32">
-        <v>0.3731854</v>
+        <v>8.1317200000000006E-2</v>
       </c>
       <c r="M32">
-        <v>0.27645890000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.99942850000000005</v>
+      </c>
+      <c r="N32">
+        <v>0.99931510000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -17271,40 +17348,43 @@
         <v>133</v>
       </c>
       <c r="C33">
-        <v>37.5</v>
+        <v>3.7</v>
       </c>
       <c r="D33">
-        <v>150.80000000000001</v>
+        <v>3</v>
       </c>
       <c r="E33">
-        <v>0.91669999999999996</v>
+        <v>0.26919999999999999</v>
       </c>
       <c r="F33">
-        <v>0.67019439999999997</v>
+        <v>3.8073652</v>
       </c>
       <c r="G33">
-        <v>0.76431199999999999</v>
+        <v>4.2637970999999997</v>
       </c>
       <c r="H33">
-        <v>0.21472840000000001</v>
+        <v>0.47690949999999999</v>
       </c>
       <c r="I33">
-        <v>0.2383854</v>
+        <v>0.53993219999999997</v>
       </c>
       <c r="J33">
-        <v>0.43236819999999998</v>
+        <v>0.54049380000000002</v>
       </c>
       <c r="K33">
-        <v>0.48990820000000002</v>
+        <v>2.8689349000000002</v>
       </c>
       <c r="L33">
-        <v>0.98142240000000003</v>
+        <v>3.2410231</v>
       </c>
       <c r="M33">
-        <v>0.97413740000000004</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.87941400000000003</v>
+      </c>
+      <c r="N33">
+        <v>0.85053959999999995</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -17312,40 +17392,43 @@
         <v>134</v>
       </c>
       <c r="C34">
-        <v>6.7</v>
+        <v>1</v>
       </c>
       <c r="D34">
-        <v>11.6</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>0.35439999999999999</v>
+        <v>0.46410000000000001</v>
       </c>
       <c r="F34">
-        <v>4.2246630999999999</v>
+        <v>836.74177650000001</v>
       </c>
       <c r="G34">
-        <v>4.7244247000000001</v>
+        <v>863.32603730000005</v>
       </c>
       <c r="H34">
-        <v>0.52925040000000001</v>
+        <v>0.75844860000000003</v>
       </c>
       <c r="I34">
-        <v>0.59567619999999999</v>
+        <v>0.78399240000000003</v>
       </c>
       <c r="J34">
-        <v>3.1883606000000002</v>
+        <v>0.78546479999999996</v>
       </c>
       <c r="K34">
-        <v>3.6391946000000002</v>
+        <v>675.66584839999996</v>
       </c>
       <c r="L34">
-        <v>0.85789420000000005</v>
+        <v>695.38277319999997</v>
       </c>
       <c r="M34">
-        <v>0.82112779999999996</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.65173020000000004</v>
+      </c>
+      <c r="N34">
+        <v>0.62607449999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -17353,40 +17436,43 @@
         <v>135</v>
       </c>
       <c r="C35">
-        <v>4.5</v>
+        <v>1.7</v>
       </c>
       <c r="D35">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E35">
-        <v>0.30830000000000002</v>
+        <v>0.27110000000000001</v>
       </c>
       <c r="F35">
-        <v>929.60663620000003</v>
+        <v>96.073488999999995</v>
       </c>
       <c r="G35">
-        <v>986.20525929999997</v>
+        <v>430.22119579999998</v>
       </c>
       <c r="H35">
-        <v>0.84257919999999997</v>
+        <v>0.2302746</v>
       </c>
       <c r="I35">
-        <v>0.89632959999999995</v>
+        <v>1.0375973000000001</v>
       </c>
       <c r="J35">
-        <v>738.34165870000004</v>
+        <v>1.0467233</v>
       </c>
       <c r="K35">
-        <v>783.63505480000003</v>
+        <v>43.948467700000002</v>
       </c>
       <c r="L35">
-        <v>0.5370511</v>
+        <v>338.01272449999999</v>
       </c>
       <c r="M35">
-        <v>0.45314090000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.9719835</v>
+      </c>
+      <c r="N35">
+        <v>-1.7514399999999999E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -17394,40 +17480,43 @@
         <v>136</v>
       </c>
       <c r="C36">
-        <v>12.9</v>
+        <v>2</v>
       </c>
       <c r="D36">
-        <v>30.8</v>
+        <v>1</v>
       </c>
       <c r="E36">
-        <v>0.25869999999999999</v>
+        <v>0.2432</v>
       </c>
       <c r="F36">
-        <v>203.13968790000001</v>
+        <v>1.5249328</v>
       </c>
       <c r="G36">
-        <v>450.3730612</v>
+        <v>1.5286801999999999</v>
       </c>
       <c r="H36">
-        <v>0.48641849999999998</v>
+        <v>0.44170160000000003</v>
       </c>
       <c r="I36">
-        <v>1.0855351</v>
+        <v>0.4207919</v>
       </c>
       <c r="J36">
-        <v>139.34585569999999</v>
+        <v>0.42083999999999999</v>
       </c>
       <c r="K36">
-        <v>368.59717330000001</v>
+        <v>1.2278792999999999</v>
       </c>
       <c r="L36">
-        <v>0.88826870000000002</v>
+        <v>1.2331886999999999</v>
       </c>
       <c r="M36">
-        <v>-7.6484899999999995E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.89484750000000002</v>
+      </c>
+      <c r="N36">
+        <v>0.89563579999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -17435,40 +17524,43 @@
         <v>137</v>
       </c>
       <c r="C37">
-        <v>26.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D37">
-        <v>104.7</v>
+        <v>0.1</v>
       </c>
       <c r="E37">
-        <v>1.0176000000000001</v>
+        <v>3.6700000000000003E-2</v>
       </c>
       <c r="F37">
-        <v>1.7248171999999999</v>
+        <v>31.486794</v>
       </c>
       <c r="G37">
-        <v>1.9262364000000001</v>
+        <v>40.0446776</v>
       </c>
       <c r="H37">
-        <v>0.49959690000000001</v>
+        <v>0.2197682</v>
       </c>
       <c r="I37">
-        <v>0.53009980000000001</v>
+        <v>0.10621360000000001</v>
       </c>
       <c r="J37">
-        <v>1.4239591</v>
+        <v>0.1062385</v>
       </c>
       <c r="K37">
-        <v>1.6015109999999999</v>
+        <v>24.4654968</v>
       </c>
       <c r="L37">
-        <v>0.87285230000000003</v>
+        <v>33.465124899999999</v>
       </c>
       <c r="M37">
-        <v>0.83329889999999995</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.85752280000000003</v>
+      </c>
+      <c r="N37">
+        <v>0.72403969999999995</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -17476,40 +17568,43 @@
         <v>138</v>
       </c>
       <c r="C38">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="D38">
-        <v>4.0999999999999996</v>
+        <v>1</v>
       </c>
       <c r="E38">
-        <v>3.5499999999999997E-2</v>
+        <v>3.73E-2</v>
       </c>
       <c r="F38">
-        <v>41.302874199999998</v>
+        <v>1.3212457</v>
       </c>
       <c r="G38">
-        <v>56.179052200000001</v>
+        <v>1.4197366</v>
       </c>
       <c r="H38">
-        <v>0.28833259999999999</v>
+        <v>0.29620010000000002</v>
       </c>
       <c r="I38">
-        <v>0.14982509999999999</v>
+        <v>0.32224589999999997</v>
       </c>
       <c r="J38">
-        <v>32.220715800000001</v>
+        <v>0.3229612</v>
       </c>
       <c r="K38">
-        <v>45.790256100000001</v>
+        <v>1.0481366999999999</v>
       </c>
       <c r="L38">
-        <v>0.77596609999999999</v>
+        <v>1.1292867</v>
       </c>
       <c r="M38">
-        <v>0.34553630000000002</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.95518460000000005</v>
+      </c>
+      <c r="N38">
+        <v>0.95116339999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -17517,40 +17612,43 @@
         <v>139</v>
       </c>
       <c r="C39">
-        <v>8.5</v>
+        <v>2.1</v>
       </c>
       <c r="D39">
-        <v>17.899999999999999</v>
+        <v>1.6</v>
       </c>
       <c r="E39">
-        <v>0.41610000000000003</v>
+        <v>0.1009</v>
       </c>
       <c r="F39">
-        <v>2.3428952999999999</v>
+        <v>6.6495700000000005E-2</v>
       </c>
       <c r="G39">
-        <v>2.6383192000000002</v>
+        <v>9.6517000000000006E-2</v>
       </c>
       <c r="H39">
-        <v>0.52517340000000001</v>
+        <v>0.41599219999999998</v>
       </c>
       <c r="I39">
-        <v>0.59240099999999996</v>
+        <v>0.31760939999999999</v>
       </c>
       <c r="J39">
-        <v>1.8413759000000001</v>
+        <v>0.3192411</v>
       </c>
       <c r="K39">
-        <v>2.1175562999999999</v>
+        <v>4.7057799999999997E-2</v>
       </c>
       <c r="L39">
-        <v>0.87158179999999996</v>
+        <v>6.7834599999999995E-2</v>
       </c>
       <c r="M39">
-        <v>0.82896349999999996</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.84987999999999997</v>
+      </c>
+      <c r="N39">
+        <v>0.69219010000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -17558,40 +17656,43 @@
         <v>140</v>
       </c>
       <c r="C40">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="D40">
-        <v>0.5</v>
+        <v>3.3</v>
       </c>
       <c r="E40">
-        <v>4.2700000000000002E-2</v>
+        <v>0.78690000000000004</v>
       </c>
       <c r="F40">
-        <v>0.1221169</v>
+        <v>0.67405320000000002</v>
       </c>
       <c r="G40">
-        <v>0.11809740000000001</v>
+        <v>0.74629520000000005</v>
       </c>
       <c r="H40">
-        <v>0.76129060000000004</v>
+        <v>0.66473179999999998</v>
       </c>
       <c r="I40">
-        <v>0.39872849999999999</v>
+        <v>0.3523618</v>
       </c>
       <c r="J40">
-        <v>9.0893500000000002E-2</v>
+        <v>0.35243409999999997</v>
       </c>
       <c r="K40">
-        <v>9.5151600000000003E-2</v>
+        <v>0.54061409999999999</v>
       </c>
       <c r="L40">
-        <v>0.122809</v>
+        <v>0.59976079999999998</v>
       </c>
       <c r="M40">
-        <v>8.9173000000000002E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.56334640000000002</v>
+      </c>
+      <c r="N40">
+        <v>0.43103560000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -17599,40 +17700,43 @@
         <v>141</v>
       </c>
       <c r="C41">
-        <v>5.2</v>
+        <v>3.6</v>
       </c>
       <c r="D41">
-        <v>6.7</v>
+        <v>4.2</v>
       </c>
       <c r="E41">
-        <v>0.49659999999999999</v>
+        <v>0.11990000000000001</v>
       </c>
       <c r="F41">
-        <v>0.72938539999999996</v>
+        <v>0.41040599999999999</v>
       </c>
       <c r="G41">
-        <v>0.75225180000000003</v>
+        <v>0.51632670000000003</v>
       </c>
       <c r="H41">
-        <v>0.71925349999999999</v>
+        <v>0.26396389999999997</v>
       </c>
       <c r="I41">
-        <v>0.35517530000000003</v>
+        <v>0.31559890000000002</v>
       </c>
       <c r="J41">
-        <v>0.57359610000000005</v>
+        <v>0.3214631</v>
       </c>
       <c r="K41">
-        <v>0.59600260000000005</v>
+        <v>0.23823810000000001</v>
       </c>
       <c r="L41">
-        <v>0.46233020000000002</v>
+        <v>0.30000919999999998</v>
       </c>
       <c r="M41">
-        <v>0.39757609999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.96314489999999997</v>
+      </c>
+      <c r="N41">
+        <v>0.94586709999999996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -17640,40 +17744,43 @@
         <v>142</v>
       </c>
       <c r="C42">
-        <v>5.3</v>
+        <v>19</v>
       </c>
       <c r="D42">
-        <v>7</v>
+        <v>58.7</v>
       </c>
       <c r="E42">
-        <v>0.20699999999999999</v>
+        <v>1.0738000000000001</v>
       </c>
       <c r="F42">
-        <v>0.91395499999999996</v>
+        <v>0.76233629999999997</v>
       </c>
       <c r="G42">
-        <v>0.89976129999999999</v>
+        <v>0.91770370000000001</v>
       </c>
       <c r="H42">
-        <v>0.58665</v>
+        <v>0.11375879999999999</v>
       </c>
       <c r="I42">
-        <v>0.56218020000000002</v>
+        <v>0.11403820000000001</v>
       </c>
       <c r="J42">
-        <v>0.5604268</v>
+        <v>0.1140844</v>
       </c>
       <c r="K42">
-        <v>0.56571260000000001</v>
+        <v>0.58682000000000001</v>
       </c>
       <c r="L42">
-        <v>0.81898970000000004</v>
+        <v>0.67999379999999998</v>
       </c>
       <c r="M42">
-        <v>0.82619379999999998</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.99324590000000001</v>
+      </c>
+      <c r="N42">
+        <v>0.99006550000000004</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -17681,40 +17788,43 @@
         <v>143</v>
       </c>
       <c r="C43">
-        <v>35.6</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D43">
-        <v>148.5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E43">
-        <v>1.0526</v>
+        <v>0.47489999999999999</v>
       </c>
       <c r="F43">
-        <v>1.7769519</v>
+        <v>423.65635589999999</v>
       </c>
       <c r="G43">
-        <v>1.9620211999999999</v>
+        <v>456.9740142</v>
       </c>
       <c r="H43">
-        <v>0.26516410000000001</v>
+        <v>0.75753239999999999</v>
       </c>
       <c r="I43">
-        <v>0.24413609999999999</v>
+        <v>0.85283419999999999</v>
       </c>
       <c r="J43">
-        <v>1.3143571000000001</v>
+        <v>0.85892670000000004</v>
       </c>
       <c r="K43">
-        <v>1.4612934</v>
+        <v>199.3217463</v>
       </c>
       <c r="L43">
-        <v>0.97083699999999995</v>
+        <v>220.28233359999999</v>
       </c>
       <c r="M43">
-        <v>0.96213130000000002</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.62656100000000003</v>
+      </c>
+      <c r="N43">
+        <v>0.51616200000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -17722,40 +17832,43 @@
         <v>144</v>
       </c>
       <c r="C44">
-        <v>5.5</v>
+        <v>9.6</v>
       </c>
       <c r="D44">
-        <v>9.1999999999999993</v>
+        <v>20.5</v>
       </c>
       <c r="E44">
-        <v>0.41120000000000001</v>
+        <v>0.15509999999999999</v>
       </c>
       <c r="F44">
-        <v>491.48845870000002</v>
+        <v>0.1880705</v>
       </c>
       <c r="G44">
-        <v>482.05056070000001</v>
+        <v>0.23607220000000001</v>
       </c>
       <c r="H44">
-        <v>0.87854509999999997</v>
+        <v>5.55446E-2</v>
       </c>
       <c r="I44">
-        <v>0.91728460000000001</v>
+        <v>6.9424299999999994E-2</v>
       </c>
       <c r="J44">
-        <v>232.56233409999999</v>
+        <v>6.9602700000000003E-2</v>
       </c>
       <c r="K44">
-        <v>242.0875039</v>
+        <v>0.1204793</v>
       </c>
       <c r="L44">
-        <v>0.46763130000000003</v>
+        <v>0.14189879999999999</v>
       </c>
       <c r="M44">
-        <v>0.41639310000000002</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.99844290000000002</v>
+      </c>
+      <c r="N44">
+        <v>0.99740150000000005</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -17763,40 +17876,43 @@
         <v>145</v>
       </c>
       <c r="C45">
-        <v>33.799999999999997</v>
+        <v>2.4</v>
       </c>
       <c r="D45">
-        <v>125.7</v>
+        <v>2</v>
       </c>
       <c r="E45">
-        <v>0.7994</v>
+        <v>6.6699999999999995E-2</v>
       </c>
       <c r="F45">
-        <v>0.78670689999999999</v>
+        <v>0.104</v>
       </c>
       <c r="G45">
-        <v>0.81824889999999995</v>
+        <v>0.1328377</v>
       </c>
       <c r="H45">
-        <v>0.23236699999999999</v>
+        <v>0.63047830000000005</v>
       </c>
       <c r="I45">
-        <v>0.23648330000000001</v>
+        <v>0.65080559999999998</v>
       </c>
       <c r="J45">
-        <v>0.474103</v>
+        <v>0.65927170000000002</v>
       </c>
       <c r="K45">
-        <v>0.50436639999999999</v>
+        <v>7.9382499999999995E-2</v>
       </c>
       <c r="L45">
-        <v>0.97855479999999995</v>
+        <v>0.1038476</v>
       </c>
       <c r="M45">
-        <v>0.97597560000000005</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.74436840000000004</v>
+      </c>
+      <c r="N45">
+        <v>0.51827860000000003</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -17804,40 +17920,43 @@
         <v>146</v>
       </c>
       <c r="C46">
-        <v>3.7</v>
+        <v>1.4</v>
       </c>
       <c r="D46">
-        <v>3.7</v>
+        <v>0.4</v>
       </c>
       <c r="E46">
-        <v>7.6399999999999996E-2</v>
+        <v>0.12139999999999999</v>
       </c>
       <c r="F46">
-        <v>0.13144420000000001</v>
+        <v>132.03981440000001</v>
       </c>
       <c r="G46">
-        <v>0.13702239999999999</v>
+        <v>139.67808049999999</v>
       </c>
       <c r="H46">
-        <v>0.79652080000000003</v>
+        <v>0.8414218</v>
       </c>
       <c r="I46">
-        <v>0.67528949999999999</v>
+        <v>0.9806783</v>
       </c>
       <c r="J46">
-        <v>0.1027677</v>
+        <v>1.00834</v>
       </c>
       <c r="K46">
-        <v>0.1087081</v>
+        <v>82.041682499999993</v>
       </c>
       <c r="L46">
-        <v>0.55671150000000003</v>
+        <v>88.662935500000003</v>
       </c>
       <c r="M46">
-        <v>0.43951129999999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.52474940000000003</v>
+      </c>
+      <c r="N46">
+        <v>0.46121030000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -17845,266 +17964,243 @@
         <v>147</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>3.2</v>
       </c>
       <c r="E47">
-        <v>0.1061</v>
+        <v>1.1168</v>
       </c>
       <c r="F47">
-        <v>146.950222</v>
+        <v>1.2368792</v>
       </c>
       <c r="G47">
-        <v>139.2990594</v>
+        <v>1.2651167999999999</v>
       </c>
       <c r="H47">
-        <v>0.93518330000000005</v>
+        <v>7.9699500000000006E-2</v>
       </c>
       <c r="I47">
-        <v>0.94252219999999998</v>
+        <v>7.8493300000000002E-2</v>
       </c>
       <c r="J47">
-        <v>92.734185600000004</v>
+        <v>7.8503299999999998E-2</v>
       </c>
       <c r="K47">
-        <v>93.29007</v>
+        <v>0.94735990000000003</v>
       </c>
       <c r="L47">
-        <v>0.33530450000000001</v>
+        <v>0.96345530000000001</v>
       </c>
       <c r="M47">
-        <v>0.31746849999999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.99679070000000003</v>
+      </c>
+      <c r="N47">
+        <v>0.996637</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="C48">
-        <v>50.4</v>
-      </c>
-      <c r="D48">
-        <v>235.9</v>
-      </c>
-      <c r="E48">
-        <v>1.5963000000000001</v>
-      </c>
-      <c r="F48">
-        <v>3.2274647000000001</v>
-      </c>
-      <c r="G48">
-        <v>3.2530641</v>
-      </c>
-      <c r="H48">
-        <v>0.20796970000000001</v>
-      </c>
-      <c r="I48">
-        <v>0.20180090000000001</v>
-      </c>
-      <c r="J48">
-        <v>2.1942854000000001</v>
-      </c>
-      <c r="K48">
-        <v>2.3543338</v>
-      </c>
-      <c r="L48">
-        <v>0.98189230000000005</v>
-      </c>
-      <c r="M48">
-        <v>0.98162199999999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>48</v>
-      </c>
+      <c r="C48" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="D48" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="E48" s="11">
+        <v>0.7923</v>
+      </c>
+      <c r="F48" s="11">
+        <v>1.1646418999999999</v>
+      </c>
+      <c r="G48" s="11">
+        <v>1.187737</v>
+      </c>
+      <c r="H48" s="11">
+        <v>8.0769499999999994E-2</v>
+      </c>
+      <c r="I48" s="11">
+        <v>7.7769199999999997E-2</v>
+      </c>
+      <c r="J48" s="11">
+        <v>7.7784300000000001E-2</v>
+      </c>
+      <c r="K48" s="11">
+        <v>0.85772590000000004</v>
+      </c>
+      <c r="L48" s="11">
+        <v>0.87804119999999997</v>
+      </c>
+      <c r="M48" s="11">
+        <v>0.9967104</v>
+      </c>
+      <c r="N48" s="11">
+        <v>0.99657379999999995</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>149</v>
+        <v>91</v>
       </c>
       <c r="C49">
-        <v>47.4</v>
+        <f>AVERAGE(C2:C48)</f>
+        <v>3.55531914893617</v>
       </c>
       <c r="D49">
-        <v>213.9</v>
+        <f>AVERAGE(D2:D48)</f>
+        <v>5.2042553191489356</v>
       </c>
       <c r="E49">
-        <v>1.5043</v>
+        <f>AVERAGE(E2:E48)</f>
+        <v>0.22980851063829791</v>
       </c>
       <c r="F49">
-        <v>2.9360072000000002</v>
+        <f>AVERAGE(F2:F48)</f>
+        <v>126.60749199148941</v>
       </c>
       <c r="G49">
-        <v>3.3392643999999998</v>
+        <f>AVERAGE(G2:G48)</f>
+        <v>166.21709656808514</v>
       </c>
       <c r="H49">
-        <v>0.20358609999999999</v>
+        <f>AVERAGE(H2:H48)</f>
+        <v>0.39681340851063823</v>
       </c>
       <c r="I49">
-        <v>0.2184191</v>
+        <f>AVERAGE(I2:I48)</f>
+        <v>0.41464712127659581</v>
       </c>
       <c r="J49">
-        <v>1.9875297000000001</v>
+        <f>AVERAGE(J2:J48)</f>
+        <v>0.42046745957446818</v>
       </c>
       <c r="K49">
-        <v>2.3009569000000001</v>
+        <f>AVERAGE(K2:K48)</f>
+        <v>89.708857423404282</v>
       </c>
       <c r="L49">
-        <v>0.98253559999999995</v>
+        <f>AVERAGE(L2:L48)</f>
+        <v>113.47635036808509</v>
       </c>
       <c r="M49">
-        <v>0.9756534</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+        <f>AVERAGE(M2:M48)</f>
+        <v>0.82555934680851051</v>
+      </c>
+      <c r="N49">
+        <f>AVERAGE(N2:N48)</f>
+        <v>0.74561697446808539</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C50">
-        <f>AVERAGE(C2:C49)</f>
-        <v>12.127083333333331</v>
+        <f>_xlfn.STDEV.P(C2:C48)</f>
+        <v>3.6332863331968519</v>
       </c>
       <c r="D50">
-        <f>AVERAGE(D2:D49)</f>
-        <v>40.085416666666681</v>
+        <f t="shared" ref="D50:N50" si="0">_xlfn.STDEV.P(D2:D48)</f>
+        <v>10.392160659307319</v>
       </c>
       <c r="E50">
-        <f>AVERAGE(E2:E49)</f>
-        <v>0.38907291666666671</v>
+        <f t="shared" si="0"/>
+        <v>0.26734269411708589</v>
       </c>
       <c r="F50">
-        <f>AVERAGE(F2:F49)</f>
-        <v>208.69341411874996</v>
+        <f t="shared" si="0"/>
+        <v>298.13957726694179</v>
       </c>
       <c r="G50">
-        <f>AVERAGE(G2:G49)</f>
-        <v>224.99193929791659</v>
+        <f t="shared" si="0"/>
+        <v>467.72004912868397</v>
       </c>
       <c r="H50">
-        <f>AVERAGE(H2:H49)</f>
-        <v>0.54005203333333307</v>
+        <f t="shared" si="0"/>
+        <v>0.26858738908656443</v>
       </c>
       <c r="I50">
-        <f>AVERAGE(I2:I49)</f>
-        <v>0.54592096874999974</v>
+        <f t="shared" si="0"/>
+        <v>0.29360426099851361</v>
       </c>
       <c r="J50">
-        <f>AVERAGE(J2:J49)</f>
-        <v>144.54851087916666</v>
+        <f t="shared" si="0"/>
+        <v>0.30254641119673464</v>
       </c>
       <c r="K50">
-        <f>AVERAGE(K2:K49)</f>
-        <v>160.52286789166664</v>
+        <f t="shared" si="0"/>
+        <v>217.87650039647204</v>
       </c>
       <c r="L50">
-        <f>AVERAGE(L2:L49)</f>
-        <v>0.72301831875</v>
+        <f t="shared" si="0"/>
+        <v>297.29688246622129</v>
       </c>
       <c r="M50">
-        <f>AVERAGE(M2:M49)</f>
-        <v>0.63550498541666667</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0.22295227830488995</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="0"/>
+        <v>0.29152427682966964</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C51">
-        <f>_xlfn.STDEV.P(C2:C49)</f>
-        <v>14.046169993740486</v>
+        <f>SUM(C2:C48)</f>
+        <v>167.1</v>
       </c>
       <c r="D51">
-        <f t="shared" ref="D51:M51" si="0">_xlfn.STDEV.P(D2:D49)</f>
-        <v>64.576917927329546</v>
+        <f>SUM(D2:D48)</f>
+        <v>244.59999999999997</v>
       </c>
       <c r="E51">
-        <f t="shared" si="0"/>
-        <v>0.39654854144836588</v>
+        <f>SUM(E2:E48)</f>
+        <v>10.801000000000002</v>
       </c>
       <c r="F51">
-        <f t="shared" si="0"/>
-        <v>503.87723890065843</v>
+        <f>SUM(F2:F48)</f>
+        <v>5950.5521236000022</v>
       </c>
       <c r="G51">
-        <f t="shared" si="0"/>
-        <v>566.04427955066956</v>
+        <f>SUM(G2:G48)</f>
+        <v>7812.2035387000014</v>
       </c>
       <c r="H51">
-        <f t="shared" si="0"/>
-        <v>0.22971087427464923</v>
+        <f>SUM(H2:H48)</f>
+        <v>18.650230199999996</v>
       </c>
       <c r="I51">
-        <f t="shared" si="0"/>
-        <v>0.28558742983906071</v>
+        <f>SUM(I2:I48)</f>
+        <v>19.488414700000003</v>
       </c>
       <c r="J51">
-        <f t="shared" si="0"/>
-        <v>376.7042268216797</v>
+        <f>SUM(J2:J48)</f>
+        <v>19.761970600000005</v>
       </c>
       <c r="K51">
-        <f t="shared" si="0"/>
-        <v>414.10752250582982</v>
+        <f>SUM(K2:K48)</f>
+        <v>4216.3162989000011</v>
       </c>
       <c r="L51">
-        <f t="shared" si="0"/>
-        <v>0.28722769592217851</v>
+        <f>SUM(L2:L48)</f>
+        <v>5333.3884672999993</v>
       </c>
       <c r="M51">
-        <f t="shared" si="0"/>
-        <v>0.32919524465260513</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>93</v>
-      </c>
-      <c r="C52">
-        <f>SUM(C2:C49)</f>
-        <v>582.09999999999991</v>
-      </c>
-      <c r="D52">
-        <f>SUM(D2:D49)</f>
-        <v>1924.1000000000006</v>
-      </c>
-      <c r="E52">
-        <f>SUM(E2:E49)</f>
-        <v>18.675500000000003</v>
-      </c>
-      <c r="F52">
-        <f>SUM(F2:F49)</f>
-        <v>10017.283877699998</v>
-      </c>
-      <c r="G52">
-        <f>SUM(G2:G49)</f>
-        <v>10799.613086299996</v>
-      </c>
-      <c r="H52">
-        <f>SUM(H2:H49)</f>
-        <v>25.922497599999989</v>
-      </c>
-      <c r="I52">
-        <f>SUM(I2:I49)</f>
-        <v>26.204206499999987</v>
-      </c>
-      <c r="J52">
-        <f>SUM(J2:J49)</f>
-        <v>6938.3285221999995</v>
-      </c>
-      <c r="K52">
-        <f>SUM(K2:K49)</f>
-        <v>7705.0976587999985</v>
-      </c>
-      <c r="L52">
-        <f>SUM(L2:L49)</f>
-        <v>34.704879300000002</v>
-      </c>
-      <c r="M52">
-        <f>SUM(M2:M49)</f>
-        <v>30.504239299999998</v>
+        <f>SUM(M2:M48)</f>
+        <v>38.801289299999993</v>
+      </c>
+      <c r="N51">
+        <f>SUM(N2:N48)</f>
+        <v>35.043997800000014</v>
       </c>
     </row>
   </sheetData>
